--- a/data/pca/factorExposure/factorExposure_2011-06-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-06-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.01648538951792177</v>
+        <v>-0.01576792048654041</v>
       </c>
       <c r="C2">
-        <v>-0.006590884055506288</v>
+        <v>0.0006264243926622789</v>
       </c>
       <c r="D2">
-        <v>0.05262543708756641</v>
+        <v>-0.006101370792013778</v>
       </c>
       <c r="E2">
-        <v>0.02768567253941493</v>
+        <v>0.04049509437195064</v>
       </c>
       <c r="F2">
-        <v>-0.03861490292133849</v>
+        <v>-1.584309658353996e-05</v>
       </c>
       <c r="G2">
-        <v>-0.01215234039318866</v>
+        <v>-0.02953809010537638</v>
       </c>
       <c r="H2">
-        <v>-0.01618928645007524</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.02395662125836014</v>
+      </c>
+      <c r="I2">
+        <v>0.008976101562893756</v>
+      </c>
+      <c r="J2">
+        <v>0.05193431099893768</v>
+      </c>
+      <c r="K2">
+        <v>0.0352149627201829</v>
+      </c>
+      <c r="L2">
+        <v>-0.01473181943945644</v>
+      </c>
+      <c r="M2">
+        <v>-0.005332891873910911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.07822147437317814</v>
+        <v>-0.1097416235327387</v>
       </c>
       <c r="C4">
-        <v>0.05595230336671492</v>
+        <v>0.07821949348218853</v>
       </c>
       <c r="D4">
-        <v>0.03183522820611135</v>
+        <v>-0.01872291321022781</v>
       </c>
       <c r="E4">
-        <v>0.04992890758713375</v>
+        <v>0.05373213421895814</v>
       </c>
       <c r="F4">
-        <v>-0.0183190822977098</v>
+        <v>0.1375289862811507</v>
       </c>
       <c r="G4">
-        <v>-0.01394666519949462</v>
+        <v>0.01109088863125876</v>
       </c>
       <c r="H4">
-        <v>-0.008698586486602086</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.006454000774157639</v>
+      </c>
+      <c r="I4">
+        <v>0.06117938244280297</v>
+      </c>
+      <c r="J4">
+        <v>-0.04489684546715914</v>
+      </c>
+      <c r="K4">
+        <v>-0.03817808913228775</v>
+      </c>
+      <c r="L4">
+        <v>0.06220797650973855</v>
+      </c>
+      <c r="M4">
+        <v>-0.04765263851685791</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>-0.1256310618713304</v>
+        <v>-0.1299541395522741</v>
       </c>
       <c r="C6">
-        <v>0.03038612804029972</v>
+        <v>0.05328544374903733</v>
       </c>
       <c r="D6">
-        <v>0.04156551877326355</v>
+        <v>-0.003187040401419709</v>
       </c>
       <c r="E6">
-        <v>0.05940084606468137</v>
+        <v>0.0005896297904495445</v>
       </c>
       <c r="F6">
-        <v>0.1139716405072189</v>
+        <v>0.01170990732311862</v>
       </c>
       <c r="G6">
-        <v>-0.009854533560226605</v>
+        <v>0.1514334337942186</v>
       </c>
       <c r="H6">
-        <v>0.2469098929021145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.1809504501807024</v>
+      </c>
+      <c r="I6">
+        <v>0.3138761815617971</v>
+      </c>
+      <c r="J6">
+        <v>-0.251983242221031</v>
+      </c>
+      <c r="K6">
+        <v>0.08994720928026562</v>
+      </c>
+      <c r="L6">
+        <v>-0.1096164154740561</v>
+      </c>
+      <c r="M6">
+        <v>-0.00831495967034844</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>-0.0708406500395963</v>
+        <v>-0.07500994722313718</v>
       </c>
       <c r="C7">
-        <v>0.05776259135342828</v>
+        <v>0.07001818258727881</v>
       </c>
       <c r="D7">
-        <v>0.05887003137632301</v>
+        <v>-0.008610660492571724</v>
       </c>
       <c r="E7">
-        <v>0.04640923091347227</v>
+        <v>0.05432590955872925</v>
       </c>
       <c r="F7">
-        <v>0.0338628463357166</v>
+        <v>0.02329510913954966</v>
       </c>
       <c r="G7">
-        <v>0.005265429372166283</v>
+        <v>-0.003226778487719149</v>
       </c>
       <c r="H7">
-        <v>-0.01801017221556035</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.01311776017561205</v>
+      </c>
+      <c r="I7">
+        <v>-0.02388516150252178</v>
+      </c>
+      <c r="J7">
+        <v>-0.01386338791868218</v>
+      </c>
+      <c r="K7">
+        <v>-0.04058577593111973</v>
+      </c>
+      <c r="L7">
+        <v>0.1042395816689797</v>
+      </c>
+      <c r="M7">
+        <v>0.02042389557022406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>-0.03034960072266826</v>
+        <v>-0.03989329982633035</v>
       </c>
       <c r="C8">
-        <v>0.0169223311514109</v>
+        <v>0.00932402666295444</v>
       </c>
       <c r="D8">
-        <v>0.05118275656665417</v>
+        <v>-0.01342493000444765</v>
       </c>
       <c r="E8">
-        <v>0.05902891049200295</v>
+        <v>0.04995580335515639</v>
       </c>
       <c r="F8">
-        <v>-0.01441654232095603</v>
+        <v>0.1039464329033873</v>
       </c>
       <c r="G8">
-        <v>-0.05782199814865777</v>
+        <v>0.003795179525759714</v>
       </c>
       <c r="H8">
-        <v>-0.02195600413668152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.00916006168729778</v>
+      </c>
+      <c r="I8">
+        <v>0.07120133971481746</v>
+      </c>
+      <c r="J8">
+        <v>-0.01456458670259755</v>
+      </c>
+      <c r="K8">
+        <v>-0.0115910752552414</v>
+      </c>
+      <c r="L8">
+        <v>0.07263926209859795</v>
+      </c>
+      <c r="M8">
+        <v>-0.03987087271255228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>-0.07593264136566122</v>
+        <v>-0.0842255788888938</v>
       </c>
       <c r="C9">
-        <v>0.06556144715251422</v>
+        <v>0.07315292701499744</v>
       </c>
       <c r="D9">
-        <v>0.03657157899251916</v>
+        <v>0.00216981858382071</v>
       </c>
       <c r="E9">
-        <v>0.04212830166527938</v>
+        <v>0.03684268100502231</v>
       </c>
       <c r="F9">
-        <v>-0.03026138275338309</v>
+        <v>0.1287450146510436</v>
       </c>
       <c r="G9">
-        <v>-0.01503767968841594</v>
+        <v>0.01532085730819109</v>
       </c>
       <c r="H9">
-        <v>-0.0009398230430697961</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.00501751716196668</v>
+      </c>
+      <c r="I9">
+        <v>0.02702562572412751</v>
+      </c>
+      <c r="J9">
+        <v>-0.02841939872135624</v>
+      </c>
+      <c r="K9">
+        <v>-0.003414410112763822</v>
+      </c>
+      <c r="L9">
+        <v>0.04637918762487868</v>
+      </c>
+      <c r="M9">
+        <v>0.007399420750539508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>-0.05852790954881464</v>
+        <v>-0.1133617537677763</v>
       </c>
       <c r="C10">
-        <v>-0.1383816287318865</v>
+        <v>-0.1662971295426327</v>
       </c>
       <c r="D10">
-        <v>0.06384100427011941</v>
+        <v>-0.003927952862632883</v>
       </c>
       <c r="E10">
-        <v>0.03396297490095618</v>
+        <v>0.05127862826383708</v>
       </c>
       <c r="F10">
-        <v>0.04179708789767252</v>
+        <v>-0.01198631535842019</v>
       </c>
       <c r="G10">
-        <v>0.00164352162094759</v>
+        <v>0.01385614011727062</v>
       </c>
       <c r="H10">
-        <v>0.01496722884481078</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.002614936772262193</v>
+      </c>
+      <c r="I10">
+        <v>-0.06028874083119939</v>
+      </c>
+      <c r="J10">
+        <v>-0.004319166188611646</v>
+      </c>
+      <c r="K10">
+        <v>3.911801382152482e-05</v>
+      </c>
+      <c r="L10">
+        <v>0.008378189735113391</v>
+      </c>
+      <c r="M10">
+        <v>0.1180302440378826</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>-0.07182604251739903</v>
+        <v>-0.06910070620431176</v>
       </c>
       <c r="C11">
-        <v>0.08535269164901435</v>
+        <v>0.0728651371404065</v>
       </c>
       <c r="D11">
-        <v>0.03392735209967531</v>
+        <v>0.03075473507863978</v>
       </c>
       <c r="E11">
-        <v>0.01221378455333831</v>
+        <v>0.01753284302570644</v>
       </c>
       <c r="F11">
-        <v>-0.05031206759552688</v>
+        <v>0.1178668177808631</v>
       </c>
       <c r="G11">
-        <v>-0.06996688847792179</v>
+        <v>0.008171681722061196</v>
       </c>
       <c r="H11">
-        <v>-0.04521832166324395</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.004601834951481106</v>
+      </c>
+      <c r="I11">
+        <v>-0.06941850221185374</v>
+      </c>
+      <c r="J11">
+        <v>0.05113035156669243</v>
+      </c>
+      <c r="K11">
+        <v>0.04922709084322745</v>
+      </c>
+      <c r="L11">
+        <v>0.03486969158711976</v>
+      </c>
+      <c r="M11">
+        <v>0.1165539658432566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>-0.06965364119907183</v>
+        <v>-0.07169418949977782</v>
       </c>
       <c r="C12">
-        <v>0.06027421653697469</v>
+        <v>0.06574591547990633</v>
       </c>
       <c r="D12">
-        <v>0.02018874651687075</v>
+        <v>0.02953344893974301</v>
       </c>
       <c r="E12">
-        <v>0.03463485918733767</v>
+        <v>0.006878415687444499</v>
       </c>
       <c r="F12">
-        <v>-0.001142501028869221</v>
+        <v>0.1252758883857595</v>
       </c>
       <c r="G12">
-        <v>-0.04537242594970654</v>
+        <v>0.003037343848662719</v>
       </c>
       <c r="H12">
-        <v>-0.03799979739326753</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.02645466402506013</v>
+      </c>
+      <c r="I12">
+        <v>-0.04539688599818459</v>
+      </c>
+      <c r="J12">
+        <v>0.05390577570420478</v>
+      </c>
+      <c r="K12">
+        <v>0.04403015067220701</v>
+      </c>
+      <c r="L12">
+        <v>0.06505852537952476</v>
+      </c>
+      <c r="M12">
+        <v>0.1383180669496168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>-0.05568532520142164</v>
+        <v>-0.04432522417813133</v>
       </c>
       <c r="C13">
-        <v>0.0118025905497614</v>
+        <v>0.03183087064572546</v>
       </c>
       <c r="D13">
-        <v>-0.004353452612290029</v>
+        <v>-0.02366063472189579</v>
       </c>
       <c r="E13">
-        <v>0.01407284553340332</v>
+        <v>0.01045702815483958</v>
       </c>
       <c r="F13">
-        <v>-0.0540403316955784</v>
+        <v>0.04031236941705146</v>
       </c>
       <c r="G13">
-        <v>0.012757149088407</v>
+        <v>-0.00813686971483117</v>
       </c>
       <c r="H13">
-        <v>0.007620592855638524</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.007402585932998094</v>
+      </c>
+      <c r="I13">
+        <v>0.009655142256432259</v>
+      </c>
+      <c r="J13">
+        <v>-0.0123004616570326</v>
+      </c>
+      <c r="K13">
+        <v>-0.04353917972962002</v>
+      </c>
+      <c r="L13">
+        <v>0.04077984799326047</v>
+      </c>
+      <c r="M13">
+        <v>-0.03185727288022678</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>-0.04826509808925886</v>
+        <v>-0.04249881347820827</v>
       </c>
       <c r="C14">
-        <v>0.02316067563905108</v>
+        <v>0.02981941894887674</v>
       </c>
       <c r="D14">
-        <v>0.01956688850608643</v>
+        <v>0.01423252784061127</v>
       </c>
       <c r="E14">
-        <v>0.00652684369330936</v>
+        <v>0.01700755560026967</v>
       </c>
       <c r="F14">
-        <v>0.02086686321420464</v>
+        <v>0.06675451736161329</v>
       </c>
       <c r="G14">
-        <v>-0.01213323265167798</v>
+        <v>-0.02372811492146195</v>
       </c>
       <c r="H14">
-        <v>0.06490256308970963</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.03110298345235037</v>
+      </c>
+      <c r="I14">
+        <v>0.03587346659684641</v>
+      </c>
+      <c r="J14">
+        <v>-0.07182372910753082</v>
+      </c>
+      <c r="K14">
+        <v>-0.0260202255659066</v>
+      </c>
+      <c r="L14">
+        <v>0.04558863290337697</v>
+      </c>
+      <c r="M14">
+        <v>-0.02518553999003047</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>-0.04074540530567855</v>
+        <v>-0.03000326940177128</v>
       </c>
       <c r="C15">
-        <v>-0.008129929597722645</v>
+        <v>0.007280686917777124</v>
       </c>
       <c r="D15">
-        <v>-0.007666487833814939</v>
+        <v>-0.05680893693210712</v>
       </c>
       <c r="E15">
-        <v>0.02170976948186738</v>
+        <v>0.002451828011944639</v>
       </c>
       <c r="F15">
-        <v>-0.006739888804816865</v>
+        <v>0.0087230609417788</v>
       </c>
       <c r="G15">
-        <v>0.01297736863705076</v>
+        <v>0.02776484135514022</v>
       </c>
       <c r="H15">
-        <v>0.004613195181769732</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.03417565029179529</v>
+      </c>
+      <c r="I15">
+        <v>0.04245308309941995</v>
+      </c>
+      <c r="J15">
+        <v>-0.04631796102758373</v>
+      </c>
+      <c r="K15">
+        <v>-0.04473751654306372</v>
+      </c>
+      <c r="L15">
+        <v>0.02190744610011607</v>
+      </c>
+      <c r="M15">
+        <v>0.01138557533467075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>-0.06134704689784755</v>
+        <v>-0.07357086866211943</v>
       </c>
       <c r="C16">
-        <v>0.08296663355206201</v>
+        <v>0.07967545936786985</v>
       </c>
       <c r="D16">
-        <v>0.02763352093685854</v>
+        <v>0.01980593917148627</v>
       </c>
       <c r="E16">
-        <v>0.03748909929951707</v>
+        <v>0.0158375212438088</v>
       </c>
       <c r="F16">
-        <v>-0.04450835086477051</v>
+        <v>0.1167732626261046</v>
       </c>
       <c r="G16">
-        <v>-0.04678437389592309</v>
+        <v>-0.007037318632709997</v>
       </c>
       <c r="H16">
-        <v>-0.03715348407504316</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.01247653038239588</v>
+      </c>
+      <c r="I16">
+        <v>-0.05308120329339611</v>
+      </c>
+      <c r="J16">
+        <v>0.04642318341542338</v>
+      </c>
+      <c r="K16">
+        <v>0.04748319326763817</v>
+      </c>
+      <c r="L16">
+        <v>0.07077684175738164</v>
+      </c>
+      <c r="M16">
+        <v>0.1144059503720996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>-0.04267463407770227</v>
+        <v>-0.04600006401935483</v>
       </c>
       <c r="C20">
-        <v>0.04280015713368726</v>
+        <v>0.03108270520162845</v>
       </c>
       <c r="D20">
-        <v>0.007962403439288616</v>
+        <v>-0.02512262507125005</v>
       </c>
       <c r="E20">
-        <v>0.01886050326397063</v>
+        <v>0.02119371301711321</v>
       </c>
       <c r="F20">
-        <v>-0.02334042213405738</v>
+        <v>0.06614958007957925</v>
       </c>
       <c r="G20">
-        <v>-0.01753074720028187</v>
+        <v>-0.01386796257970716</v>
       </c>
       <c r="H20">
-        <v>-0.003526684937973789</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.01305391246726605</v>
+      </c>
+      <c r="I20">
+        <v>0.009836653311513793</v>
+      </c>
+      <c r="J20">
+        <v>-0.03832409943388765</v>
+      </c>
+      <c r="K20">
+        <v>-0.008892566387381522</v>
+      </c>
+      <c r="L20">
+        <v>0.07850820905338068</v>
+      </c>
+      <c r="M20">
+        <v>0.01403518162674141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>-0.02407231205693043</v>
+        <v>-0.03078965759732798</v>
       </c>
       <c r="C21">
-        <v>0.03140502533367797</v>
+        <v>0.02565711098717955</v>
       </c>
       <c r="D21">
-        <v>-0.001555904261995658</v>
+        <v>-0.007861917615482134</v>
       </c>
       <c r="E21">
-        <v>0.05655345556892113</v>
+        <v>0.01939929475168517</v>
       </c>
       <c r="F21">
-        <v>0.06910300619856548</v>
+        <v>0.06323936895770478</v>
       </c>
       <c r="G21">
-        <v>0.00290375863484432</v>
+        <v>0.09843249155243652</v>
       </c>
       <c r="H21">
-        <v>-0.002372025485225203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.02030776159844106</v>
+      </c>
+      <c r="I21">
+        <v>-0.04837376918268221</v>
+      </c>
+      <c r="J21">
+        <v>-0.06068425620191171</v>
+      </c>
+      <c r="K21">
+        <v>-0.05832000777770924</v>
+      </c>
+      <c r="L21">
+        <v>0.06705216545064323</v>
+      </c>
+      <c r="M21">
+        <v>-0.002370492828118202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>-0.01550153875037891</v>
+        <v>-0.04166936357998733</v>
       </c>
       <c r="C22">
-        <v>0.04136130901508896</v>
+        <v>0.01519311375508867</v>
       </c>
       <c r="D22">
-        <v>-0.1293180088996843</v>
+        <v>-0.656938757103516</v>
       </c>
       <c r="E22">
-        <v>0.496394119573666</v>
+        <v>0.04515760924640994</v>
       </c>
       <c r="F22">
-        <v>-0.121489584980675</v>
+        <v>-0.06940303559948138</v>
       </c>
       <c r="G22">
-        <v>0.2886380786908211</v>
+        <v>-0.07147279400449628</v>
       </c>
       <c r="H22">
-        <v>-0.1704399037050492</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.09059098182771087</v>
+      </c>
+      <c r="I22">
+        <v>-0.1082673997889719</v>
+      </c>
+      <c r="J22">
+        <v>-0.02857928296935316</v>
+      </c>
+      <c r="K22">
+        <v>0.03067095468065676</v>
+      </c>
+      <c r="L22">
+        <v>-0.009627199459531104</v>
+      </c>
+      <c r="M22">
+        <v>0.0007342468432892113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>-0.01422498982244155</v>
+        <v>-0.0419063190586647</v>
       </c>
       <c r="C23">
-        <v>0.03973356710503415</v>
+        <v>0.01538349265146206</v>
       </c>
       <c r="D23">
-        <v>-0.129003408140975</v>
+        <v>-0.6584376551308655</v>
       </c>
       <c r="E23">
-        <v>0.4951362838879874</v>
+        <v>0.04571271896792796</v>
       </c>
       <c r="F23">
-        <v>-0.1207474200719499</v>
+        <v>-0.06637464348158473</v>
       </c>
       <c r="G23">
-        <v>0.2889213982563444</v>
+        <v>-0.07240941060136474</v>
       </c>
       <c r="H23">
-        <v>-0.1679548336130426</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.09154871134772308</v>
+      </c>
+      <c r="I23">
+        <v>-0.1052234223540254</v>
+      </c>
+      <c r="J23">
+        <v>-0.02873045720345072</v>
+      </c>
+      <c r="K23">
+        <v>0.03319692467654953</v>
+      </c>
+      <c r="L23">
+        <v>-0.01139870489960791</v>
+      </c>
+      <c r="M23">
+        <v>-0.0005917106594499872</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>-0.07650669586046098</v>
+        <v>-0.07844108400538892</v>
       </c>
       <c r="C24">
-        <v>0.07439509124619213</v>
+        <v>0.07699670044658181</v>
       </c>
       <c r="D24">
-        <v>0.03311244328103595</v>
+        <v>0.01502076150472875</v>
       </c>
       <c r="E24">
-        <v>0.041342281537723</v>
+        <v>0.01932393992533506</v>
       </c>
       <c r="F24">
-        <v>-0.03122527011498216</v>
+        <v>0.1178905923324204</v>
       </c>
       <c r="G24">
-        <v>-0.04709373737829232</v>
+        <v>0.003846857058673748</v>
       </c>
       <c r="H24">
-        <v>-0.02647375163013399</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.01327316109654412</v>
+      </c>
+      <c r="I24">
+        <v>-0.05472087404349464</v>
+      </c>
+      <c r="J24">
+        <v>0.0447838436167382</v>
+      </c>
+      <c r="K24">
+        <v>0.06145185453376147</v>
+      </c>
+      <c r="L24">
+        <v>0.04068888874329674</v>
+      </c>
+      <c r="M24">
+        <v>0.1082577930349948</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>-0.06733900924659073</v>
+        <v>-0.07524073199096824</v>
       </c>
       <c r="C25">
-        <v>0.04138220055672341</v>
+        <v>0.05200996901987651</v>
       </c>
       <c r="D25">
-        <v>0.03087112400751802</v>
+        <v>0.03261753336207108</v>
       </c>
       <c r="E25">
-        <v>0.04736560532812362</v>
+        <v>0.01740420226360064</v>
       </c>
       <c r="F25">
-        <v>-0.04387427466948324</v>
+        <v>0.1265623074941232</v>
       </c>
       <c r="G25">
-        <v>-0.06069409754453619</v>
+        <v>-0.008490124229313695</v>
       </c>
       <c r="H25">
-        <v>-0.0035854125731903</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.006845905930710462</v>
+      </c>
+      <c r="I25">
+        <v>-0.05086383251008955</v>
+      </c>
+      <c r="J25">
+        <v>0.04816991725955919</v>
+      </c>
+      <c r="K25">
+        <v>0.08185495003874259</v>
+      </c>
+      <c r="L25">
+        <v>0.04128015196459994</v>
+      </c>
+      <c r="M25">
+        <v>0.1145567294398957</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>-0.04291802085218954</v>
+        <v>-0.04205220267517406</v>
       </c>
       <c r="C26">
-        <v>0.03708978049472678</v>
+        <v>0.02284029625457184</v>
       </c>
       <c r="D26">
-        <v>0.03857783486970005</v>
+        <v>-0.01262332433702416</v>
       </c>
       <c r="E26">
-        <v>0.0001379244306719156</v>
+        <v>0.0005513899634030853</v>
       </c>
       <c r="F26">
-        <v>-0.008337345875573339</v>
+        <v>0.03473915545214214</v>
       </c>
       <c r="G26">
-        <v>0.02537277039033467</v>
+        <v>-0.007253358547555551</v>
       </c>
       <c r="H26">
-        <v>-0.01476470262353314</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.01161295935923926</v>
+      </c>
+      <c r="I26">
+        <v>-0.01722507484845618</v>
+      </c>
+      <c r="J26">
+        <v>-0.0859905439765451</v>
+      </c>
+      <c r="K26">
+        <v>-0.1092448580133095</v>
+      </c>
+      <c r="L26">
+        <v>0.0866568056381104</v>
+      </c>
+      <c r="M26">
+        <v>0.01680012553976177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>-0.1075255767018604</v>
+        <v>-0.1452895788694349</v>
       </c>
       <c r="C28">
-        <v>-0.2972065843397543</v>
+        <v>-0.2845594615281713</v>
       </c>
       <c r="D28">
-        <v>0.03901838734045648</v>
+        <v>0.01325599021743874</v>
       </c>
       <c r="E28">
-        <v>0.0024067754540625</v>
+        <v>0.02655356759789974</v>
       </c>
       <c r="F28">
-        <v>0.04817608051306203</v>
+        <v>-4.535053629775965e-06</v>
       </c>
       <c r="G28">
-        <v>0.01350854559341225</v>
+        <v>0.007469916591931016</v>
       </c>
       <c r="H28">
-        <v>-0.05839503355920293</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.02267493008583791</v>
+      </c>
+      <c r="I28">
+        <v>0.01194783347408547</v>
+      </c>
+      <c r="J28">
+        <v>-0.0003626623721920892</v>
+      </c>
+      <c r="K28">
+        <v>-0.03379989302787073</v>
+      </c>
+      <c r="L28">
+        <v>0.02019986532547122</v>
+      </c>
+      <c r="M28">
+        <v>-0.007159470309719374</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>-0.05168408596918439</v>
+        <v>-0.04237864563644676</v>
       </c>
       <c r="C29">
-        <v>0.01905764225584528</v>
+        <v>0.02905668084515405</v>
       </c>
       <c r="D29">
-        <v>0.01144060899518824</v>
+        <v>0.003240474092841347</v>
       </c>
       <c r="E29">
-        <v>0.02264502668123249</v>
+        <v>0.02064359826006308</v>
       </c>
       <c r="F29">
-        <v>-0.00565687345785166</v>
+        <v>0.06010561850211062</v>
       </c>
       <c r="G29">
-        <v>0.01298253229114783</v>
+        <v>-0.02371149236922295</v>
       </c>
       <c r="H29">
-        <v>0.006287986924989501</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.01363708371827387</v>
+      </c>
+      <c r="I29">
+        <v>0.01485389928758254</v>
+      </c>
+      <c r="J29">
+        <v>-0.06235735709720681</v>
+      </c>
+      <c r="K29">
+        <v>-0.01704029200324759</v>
+      </c>
+      <c r="L29">
+        <v>0.04268606786817952</v>
+      </c>
+      <c r="M29">
+        <v>-0.00853049588798447</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>-0.1320320581728293</v>
+        <v>-0.09993678045595518</v>
       </c>
       <c r="C30">
-        <v>0.04648702466178869</v>
+        <v>0.06463439528180788</v>
       </c>
       <c r="D30">
-        <v>0.05072194891752004</v>
+        <v>-0.003666978499599795</v>
       </c>
       <c r="E30">
-        <v>0.1349205766218017</v>
+        <v>0.03959903773673589</v>
       </c>
       <c r="F30">
-        <v>0.008043972521397987</v>
+        <v>0.19260232390318</v>
       </c>
       <c r="G30">
-        <v>-0.1460261072270331</v>
+        <v>-0.01328074162353111</v>
       </c>
       <c r="H30">
-        <v>-0.03419960903537981</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.2371988828820901</v>
+      </c>
+      <c r="I30">
+        <v>-0.07383367412715369</v>
+      </c>
+      <c r="J30">
+        <v>-0.1333758206057355</v>
+      </c>
+      <c r="K30">
+        <v>-0.0603627978484853</v>
+      </c>
+      <c r="L30">
+        <v>0.1208342709147491</v>
+      </c>
+      <c r="M30">
+        <v>-0.3961685933437857</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>-0.04968867698568187</v>
+        <v>-0.03518033391424717</v>
       </c>
       <c r="C31">
-        <v>0.02595227349737088</v>
+        <v>0.04675858989146026</v>
       </c>
       <c r="D31">
-        <v>-0.009518880670418131</v>
+        <v>-0.004829292543350038</v>
       </c>
       <c r="E31">
-        <v>-0.00502154923332014</v>
+        <v>-0.008171125103120911</v>
       </c>
       <c r="F31">
-        <v>-0.01303650468813627</v>
+        <v>0.02565590800854872</v>
       </c>
       <c r="G31">
-        <v>0.03907528131599385</v>
+        <v>-0.02815314921838464</v>
       </c>
       <c r="H31">
-        <v>0.009708436628523505</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.03546794583162845</v>
+      </c>
+      <c r="I31">
+        <v>0.02919660179825349</v>
+      </c>
+      <c r="J31">
+        <v>-0.00628468916271655</v>
+      </c>
+      <c r="K31">
+        <v>0.002670443338883003</v>
+      </c>
+      <c r="L31">
+        <v>0.03099731996139714</v>
+      </c>
+      <c r="M31">
+        <v>0.0004871402498763025</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>-0.02073898688514485</v>
+        <v>-0.04172374529949835</v>
       </c>
       <c r="C32">
-        <v>-0.01977186749040876</v>
+        <v>-0.003396637638374783</v>
       </c>
       <c r="D32">
-        <v>-0.02165557129993843</v>
+        <v>0.01349986146098375</v>
       </c>
       <c r="E32">
-        <v>0.08324300526992448</v>
+        <v>0.00267132197081559</v>
       </c>
       <c r="F32">
-        <v>-0.07685802022775046</v>
+        <v>0.08858015955037928</v>
       </c>
       <c r="G32">
-        <v>-0.03189454383958491</v>
+        <v>0.01822183452489433</v>
       </c>
       <c r="H32">
-        <v>-0.03590861373992894</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-0.077804437052332</v>
+      </c>
+      <c r="I32">
+        <v>0.01591555169872201</v>
+      </c>
+      <c r="J32">
+        <v>0.0259126427377167</v>
+      </c>
+      <c r="K32">
+        <v>-0.04908104338553734</v>
+      </c>
+      <c r="L32">
+        <v>0.03104605258440178</v>
+      </c>
+      <c r="M32">
+        <v>-0.1276074235118769</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>-0.1016542063118504</v>
+        <v>-0.09878103214282113</v>
       </c>
       <c r="C33">
-        <v>0.04322768659437248</v>
+        <v>0.06770569583691674</v>
       </c>
       <c r="D33">
-        <v>0.002683843516399209</v>
+        <v>0.01025532639473989</v>
       </c>
       <c r="E33">
-        <v>0.01549628183611327</v>
+        <v>-0.01139670914798657</v>
       </c>
       <c r="F33">
-        <v>-0.05137408522924467</v>
+        <v>0.07756726209819327</v>
       </c>
       <c r="G33">
-        <v>-0.01728029660707411</v>
+        <v>-0.0185128996947952</v>
       </c>
       <c r="H33">
-        <v>-0.00331791017236094</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.006285884499832381</v>
+      </c>
+      <c r="I33">
+        <v>-0.01347510691980265</v>
+      </c>
+      <c r="J33">
+        <v>-0.06176684311622754</v>
+      </c>
+      <c r="K33">
+        <v>-0.0001526697296956034</v>
+      </c>
+      <c r="L33">
+        <v>-0.0007254983905113882</v>
+      </c>
+      <c r="M33">
+        <v>0.01113966404969593</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>-0.05686384184955905</v>
+        <v>-0.06425892136624821</v>
       </c>
       <c r="C34">
-        <v>0.07707932582722246</v>
+        <v>0.06268351639530659</v>
       </c>
       <c r="D34">
-        <v>0.01981820932644712</v>
+        <v>0.02525054122157264</v>
       </c>
       <c r="E34">
-        <v>0.02699621491985208</v>
+        <v>0.01343674641702713</v>
       </c>
       <c r="F34">
-        <v>-0.02971525086037491</v>
+        <v>0.1047958039403138</v>
       </c>
       <c r="G34">
-        <v>-0.03801657634654008</v>
+        <v>-0.00350932039767529</v>
       </c>
       <c r="H34">
-        <v>-0.02471594872881525</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.005605228594890669</v>
+      </c>
+      <c r="I34">
+        <v>-0.03510703343726405</v>
+      </c>
+      <c r="J34">
+        <v>0.03049515596305338</v>
+      </c>
+      <c r="K34">
+        <v>0.05255602742874797</v>
+      </c>
+      <c r="L34">
+        <v>0.04500273424134026</v>
+      </c>
+      <c r="M34">
+        <v>0.1271426132047885</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>-0.04502843186208886</v>
+        <v>-0.02640653233217671</v>
       </c>
       <c r="C35">
-        <v>0.04521453484011561</v>
+        <v>0.02838322377255693</v>
       </c>
       <c r="D35">
-        <v>0.005999624267463835</v>
+        <v>0.0008160833384851675</v>
       </c>
       <c r="E35">
-        <v>0.01773539529662854</v>
+        <v>-0.0008866118429705744</v>
       </c>
       <c r="F35">
-        <v>-0.008339170304357579</v>
+        <v>0.03549685319552673</v>
       </c>
       <c r="G35">
-        <v>-0.02065688210922614</v>
+        <v>-0.009085045314051726</v>
       </c>
       <c r="H35">
-        <v>0.002594411803450315</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.0009007522133294812</v>
+      </c>
+      <c r="I35">
+        <v>-0.03139833906003341</v>
+      </c>
+      <c r="J35">
+        <v>-0.01442921885029786</v>
+      </c>
+      <c r="K35">
+        <v>-0.01729271146448886</v>
+      </c>
+      <c r="L35">
+        <v>0.07682910796962199</v>
+      </c>
+      <c r="M35">
+        <v>0.0006151401474264992</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>-0.03527920117232083</v>
+        <v>-0.02933853960153176</v>
       </c>
       <c r="C36">
-        <v>0.02120274426737467</v>
+        <v>0.0217888439267767</v>
       </c>
       <c r="D36">
-        <v>0.02268137844965514</v>
+        <v>-0.01380537525242103</v>
       </c>
       <c r="E36">
-        <v>0.03293144513312263</v>
+        <v>0.01223462430470354</v>
       </c>
       <c r="F36">
-        <v>-0.03004161762006621</v>
+        <v>0.06727086493574672</v>
       </c>
       <c r="G36">
-        <v>-0.01407716889535159</v>
+        <v>-0.004123300495954191</v>
       </c>
       <c r="H36">
-        <v>0.01985419355736666</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.008907114817324681</v>
+      </c>
+      <c r="I36">
+        <v>0.005966540435772179</v>
+      </c>
+      <c r="J36">
+        <v>-0.04917741886682529</v>
+      </c>
+      <c r="K36">
+        <v>-0.01473294386083783</v>
+      </c>
+      <c r="L36">
+        <v>0.03642966015254781</v>
+      </c>
+      <c r="M36">
+        <v>0.03577957636991655</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>-0.04341054286267532</v>
+        <v>-0.02961555408795433</v>
       </c>
       <c r="C38">
-        <v>0.0353349540906949</v>
+        <v>0.04839871583694765</v>
       </c>
       <c r="D38">
-        <v>-0.02114157329692126</v>
+        <v>-0.02599010207279364</v>
       </c>
       <c r="E38">
-        <v>0.03407606569681099</v>
+        <v>0.0004642535733362255</v>
       </c>
       <c r="F38">
-        <v>-0.04420690943800582</v>
+        <v>-0.05109363688855636</v>
       </c>
       <c r="G38">
-        <v>-0.001215164208566933</v>
+        <v>-0.04982099670200512</v>
       </c>
       <c r="H38">
-        <v>-0.05375160389100032</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.01417176355745854</v>
+      </c>
+      <c r="I38">
+        <v>-0.06802403555251356</v>
+      </c>
+      <c r="J38">
+        <v>-0.06277717818306955</v>
+      </c>
+      <c r="K38">
+        <v>-0.09412052519300913</v>
+      </c>
+      <c r="L38">
+        <v>-0.03544745045755803</v>
+      </c>
+      <c r="M38">
+        <v>-0.09764154353385865</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>-0.09813664975936741</v>
+        <v>-0.09921483740611357</v>
       </c>
       <c r="C39">
-        <v>0.09431842116084681</v>
+        <v>0.0943720280389974</v>
       </c>
       <c r="D39">
-        <v>0.01194181445182779</v>
+        <v>0.0847691423995527</v>
       </c>
       <c r="E39">
-        <v>0.03487527334706565</v>
+        <v>-0.01946945361659927</v>
       </c>
       <c r="F39">
-        <v>-0.0262277050445756</v>
+        <v>0.1595161898558184</v>
       </c>
       <c r="G39">
-        <v>-0.08347626592257171</v>
+        <v>-0.06685604463083715</v>
       </c>
       <c r="H39">
-        <v>-0.1017862790177397</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.09684265946681667</v>
+      </c>
+      <c r="I39">
+        <v>-0.1094381559378749</v>
+      </c>
+      <c r="J39">
+        <v>0.1280636069405667</v>
+      </c>
+      <c r="K39">
+        <v>0.08403630455811219</v>
+      </c>
+      <c r="L39">
+        <v>0.1416848173306177</v>
+      </c>
+      <c r="M39">
+        <v>-0.02539153062592789</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>-0.04831279280719456</v>
+        <v>-0.03578561312631043</v>
       </c>
       <c r="C40">
-        <v>0.03735316913877856</v>
+        <v>0.05927588975727527</v>
       </c>
       <c r="D40">
-        <v>-0.05482971897812441</v>
+        <v>-0.05118540473448237</v>
       </c>
       <c r="E40">
-        <v>0.1349542757610955</v>
+        <v>0.00304543805986477</v>
       </c>
       <c r="F40">
-        <v>-0.0820506686625478</v>
+        <v>0.1167529948360407</v>
       </c>
       <c r="G40">
-        <v>-0.08841941864784493</v>
+        <v>0.07938381555167137</v>
       </c>
       <c r="H40">
-        <v>-0.108993310217358</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.002522457271945825</v>
+      </c>
+      <c r="I40">
+        <v>-0.1085174281774723</v>
+      </c>
+      <c r="J40">
+        <v>-0.04097364522621624</v>
+      </c>
+      <c r="K40">
+        <v>-0.1336163624972242</v>
+      </c>
+      <c r="L40">
+        <v>-0.008450686853048473</v>
+      </c>
+      <c r="M40">
+        <v>-0.06129351112683483</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>-0.04652669478097682</v>
+        <v>-0.03869741237810043</v>
       </c>
       <c r="C41">
-        <v>0.05019727713044742</v>
+        <v>0.03672829527458519</v>
       </c>
       <c r="D41">
-        <v>0.009726950631600395</v>
+        <v>0.01549553631815198</v>
       </c>
       <c r="E41">
-        <v>0.002434607337188816</v>
+        <v>-0.0007062716165558537</v>
       </c>
       <c r="F41">
-        <v>-0.03131130273780584</v>
+        <v>0.01915793224696405</v>
       </c>
       <c r="G41">
-        <v>-0.00643522905352355</v>
+        <v>-0.02521610980747027</v>
       </c>
       <c r="H41">
-        <v>-0.02319075261583645</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>-0.01152182667995133</v>
+      </c>
+      <c r="I41">
+        <v>-0.01638249519920507</v>
+      </c>
+      <c r="J41">
+        <v>-0.007247593841185062</v>
+      </c>
+      <c r="K41">
+        <v>-0.03611993450328849</v>
+      </c>
+      <c r="L41">
+        <v>0.02308256478504647</v>
+      </c>
+      <c r="M41">
+        <v>0.0357369484313849</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>-0.06119722782326852</v>
+        <v>-0.05270961983060957</v>
       </c>
       <c r="C43">
-        <v>0.03862077259467309</v>
+        <v>0.0446763856910328</v>
       </c>
       <c r="D43">
-        <v>0.02730931870055296</v>
+        <v>-0.01337525438476281</v>
       </c>
       <c r="E43">
-        <v>0.0342945708357407</v>
+        <v>0.009825472967828255</v>
       </c>
       <c r="F43">
-        <v>-0.01768693959995915</v>
+        <v>0.01382115324816032</v>
       </c>
       <c r="G43">
-        <v>0.01620104513258616</v>
+        <v>-0.05217854170364871</v>
       </c>
       <c r="H43">
-        <v>-0.02168603729753439</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.01598347731391526</v>
+      </c>
+      <c r="I43">
+        <v>-0.004397042279165089</v>
+      </c>
+      <c r="J43">
+        <v>0.004805872947008682</v>
+      </c>
+      <c r="K43">
+        <v>-0.009471500309066067</v>
+      </c>
+      <c r="L43">
+        <v>0.03042655936388569</v>
+      </c>
+      <c r="M43">
+        <v>0.02813468460572947</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>-0.05350018251920659</v>
+        <v>-0.08236994911266254</v>
       </c>
       <c r="C44">
-        <v>0.00944431865605686</v>
+        <v>0.05612791135801012</v>
       </c>
       <c r="D44">
-        <v>0.06574282428327106</v>
+        <v>-0.07987040880241482</v>
       </c>
       <c r="E44">
-        <v>0.1192281393627659</v>
+        <v>0.1083817949290341</v>
       </c>
       <c r="F44">
-        <v>-0.04363818678731018</v>
+        <v>0.1663745186249013</v>
       </c>
       <c r="G44">
-        <v>-0.1178141446759748</v>
+        <v>0.01005406250687128</v>
       </c>
       <c r="H44">
-        <v>-0.0165545933536059</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.01923238872541138</v>
+      </c>
+      <c r="I44">
+        <v>-0.09450364607226379</v>
+      </c>
+      <c r="J44">
+        <v>0.0072091751578694</v>
+      </c>
+      <c r="K44">
+        <v>-0.03691980643319109</v>
+      </c>
+      <c r="L44">
+        <v>0.02096198051255842</v>
+      </c>
+      <c r="M44">
+        <v>-0.1360144318647947</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2548,476 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>-0.02176591971107066</v>
+        <v>-0.03392131466178759</v>
       </c>
       <c r="C46">
-        <v>0.04482025667350568</v>
+        <v>0.03762587716420886</v>
       </c>
       <c r="D46">
-        <v>0.01085420517606126</v>
+        <v>-0.04071260095404496</v>
       </c>
       <c r="E46">
-        <v>0.03604487640102719</v>
+        <v>0.03960064282208484</v>
       </c>
       <c r="F46">
-        <v>-0.01104576167333487</v>
+        <v>0.03844741519115966</v>
       </c>
       <c r="G46">
-        <v>0.008667939065103387</v>
+        <v>0.008794365039773835</v>
       </c>
       <c r="H46">
-        <v>-0.01553652124742264</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.05144717584233856</v>
+      </c>
+      <c r="I46">
+        <v>0.01892861080361153</v>
+      </c>
+      <c r="J46">
+        <v>-0.08351837924810604</v>
+      </c>
+      <c r="K46">
+        <v>-0.03556080182334699</v>
+      </c>
+      <c r="L46">
+        <v>0.06613932736829158</v>
+      </c>
+      <c r="M46">
+        <v>0.01358073054650458</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>-0.02508778382077482</v>
+        <v>-0.04483898672087887</v>
       </c>
       <c r="C47">
-        <v>0.00327539646142281</v>
+        <v>0.02863372303601064</v>
       </c>
       <c r="D47">
-        <v>-0.01148372243047565</v>
+        <v>-0.01838970572504831</v>
       </c>
       <c r="E47">
-        <v>0.06894190686188091</v>
+        <v>0.01050142866381905</v>
       </c>
       <c r="F47">
-        <v>-0.02268059190942301</v>
+        <v>0.04307157686766476</v>
       </c>
       <c r="G47">
-        <v>-0.003700372799509011</v>
+        <v>-0.01545034728131373</v>
       </c>
       <c r="H47">
-        <v>0.03697739331303813</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.01102141951924737</v>
+      </c>
+      <c r="I47">
+        <v>-0.003197448393687498</v>
+      </c>
+      <c r="J47">
+        <v>-0.05180273608284943</v>
+      </c>
+      <c r="K47">
+        <v>-0.003553456235798814</v>
+      </c>
+      <c r="L47">
+        <v>0.02031333338866093</v>
+      </c>
+      <c r="M47">
+        <v>0.0393092737820421</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>-0.03281814012706633</v>
+        <v>-0.04118973202547976</v>
       </c>
       <c r="C48">
-        <v>0.02681125547969515</v>
+        <v>0.02065459813118534</v>
       </c>
       <c r="D48">
-        <v>-0.001889999694172472</v>
+        <v>-0.01076717157482065</v>
       </c>
       <c r="E48">
-        <v>0.05143120431194572</v>
+        <v>0.0003339294282116259</v>
       </c>
       <c r="F48">
-        <v>-0.02578078627422354</v>
+        <v>0.07210084276644348</v>
       </c>
       <c r="G48">
-        <v>0.02567867309510033</v>
+        <v>0.03476838629997958</v>
       </c>
       <c r="H48">
-        <v>0.002265655844943943</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.002875823656296078</v>
+      </c>
+      <c r="I48">
+        <v>0.01378521036476845</v>
+      </c>
+      <c r="J48">
+        <v>-0.02905888413587949</v>
+      </c>
+      <c r="K48">
+        <v>-0.005037320335977394</v>
+      </c>
+      <c r="L48">
+        <v>0.07304848347886578</v>
+      </c>
+      <c r="M48">
+        <v>0.02525206042362416</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>-0.2095989955811223</v>
+        <v>-0.2251322755464204</v>
       </c>
       <c r="C49">
-        <v>0.1262751866687809</v>
+        <v>0.07703308673643132</v>
       </c>
       <c r="D49">
-        <v>0.07233029171677301</v>
+        <v>0.05405194664269205</v>
       </c>
       <c r="E49">
-        <v>-0.04546290277135263</v>
+        <v>0.02359669769329559</v>
       </c>
       <c r="F49">
-        <v>0.1847315545749911</v>
+        <v>-0.2490076160059325</v>
       </c>
       <c r="G49">
-        <v>-0.02712851792814628</v>
+        <v>0.1427926611244972</v>
       </c>
       <c r="H49">
-        <v>-0.05233285152804003</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.03419435108752866</v>
+      </c>
+      <c r="I49">
+        <v>-0.1551001705148225</v>
+      </c>
+      <c r="J49">
+        <v>0.07331900267459313</v>
+      </c>
+      <c r="K49">
+        <v>0.1472063053876046</v>
+      </c>
+      <c r="L49">
+        <v>-0.04341222506028835</v>
+      </c>
+      <c r="M49">
+        <v>0.1123080823497877</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>-0.05622304382310048</v>
+        <v>-0.04398654601589445</v>
       </c>
       <c r="C50">
-        <v>0.02658519944435069</v>
+        <v>0.0424225550176361</v>
       </c>
       <c r="D50">
-        <v>-0.005098082802896953</v>
+        <v>-0.002711686556688417</v>
       </c>
       <c r="E50">
-        <v>0.02106645319648533</v>
+        <v>-0.0109657859048633</v>
       </c>
       <c r="F50">
-        <v>-0.04823132509809337</v>
+        <v>0.04985183786732528</v>
       </c>
       <c r="G50">
-        <v>0.04281633924356673</v>
+        <v>-0.03626364219648176</v>
       </c>
       <c r="H50">
-        <v>0.0386956078517216</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>-0.01893277187942317</v>
+      </c>
+      <c r="I50">
+        <v>0.02636556419268355</v>
+      </c>
+      <c r="J50">
+        <v>-0.0542459684343428</v>
+      </c>
+      <c r="K50">
+        <v>-0.01096630977172919</v>
+      </c>
+      <c r="L50">
+        <v>0.01893334224819808</v>
+      </c>
+      <c r="M50">
+        <v>-0.02544384512397293</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>-0.029247139775725</v>
+        <v>-0.02859488140366159</v>
       </c>
       <c r="C51">
-        <v>0.009814974887926571</v>
+        <v>0.005545571885172912</v>
       </c>
       <c r="D51">
-        <v>0.001915964024899719</v>
+        <v>0.001498968991168214</v>
       </c>
       <c r="E51">
-        <v>0.01023097714770109</v>
+        <v>0.01879844045083863</v>
       </c>
       <c r="F51">
-        <v>-0.002329919967267347</v>
+        <v>-0.01838829546930816</v>
       </c>
       <c r="G51">
-        <v>-0.01874368262466027</v>
+        <v>-0.004969225302747115</v>
       </c>
       <c r="H51">
-        <v>-0.02031038912748728</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.01696508671497195</v>
+      </c>
+      <c r="I51">
+        <v>-0.01975920802511529</v>
+      </c>
+      <c r="J51">
+        <v>0.06103363735066616</v>
+      </c>
+      <c r="K51">
+        <v>0.06583104624551316</v>
+      </c>
+      <c r="L51">
+        <v>-0.009810492627769675</v>
+      </c>
+      <c r="M51">
+        <v>-0.01153284427225007</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.02415573634273302</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.008461607570076864</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.01439128858874163</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.006963916960128275</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.01270002605440322</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.02953226342325624</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>-0.009878603649326193</v>
+      </c>
+      <c r="I52">
+        <v>0.003405830973174381</v>
+      </c>
+      <c r="J52">
+        <v>0.008674402336853156</v>
+      </c>
+      <c r="K52">
+        <v>-0.002636519914928537</v>
+      </c>
+      <c r="L52">
+        <v>0.0185780960444186</v>
+      </c>
+      <c r="M52">
+        <v>-0.03098841850559559</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>-0.1694675355028769</v>
+        <v>-0.1566003342295927</v>
       </c>
       <c r="C53">
-        <v>0.006650215372628823</v>
+        <v>0.0475950894452619</v>
       </c>
       <c r="D53">
-        <v>0.02188760801285498</v>
+        <v>0.01232500480594337</v>
       </c>
       <c r="E53">
-        <v>-0.08914063487224343</v>
+        <v>-0.005775678588508327</v>
       </c>
       <c r="F53">
-        <v>-0.2435020680737038</v>
+        <v>-0.04958147885277617</v>
       </c>
       <c r="G53">
-        <v>0.02189976978626074</v>
+        <v>-0.2384943138581962</v>
       </c>
       <c r="H53">
-        <v>0.07884594025490109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>-0.1200034196162479</v>
+      </c>
+      <c r="I53">
+        <v>0.0390385143744469</v>
+      </c>
+      <c r="J53">
+        <v>-0.06034198824392854</v>
+      </c>
+      <c r="K53">
+        <v>0.01517610593501592</v>
+      </c>
+      <c r="L53">
+        <v>-0.09104781679416374</v>
+      </c>
+      <c r="M53">
+        <v>-0.1041421864711195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>-0.04853386870189962</v>
+        <v>-0.05815861627714972</v>
       </c>
       <c r="C54">
-        <v>0.03376288439875717</v>
+        <v>0.03754635197746477</v>
       </c>
       <c r="D54">
-        <v>0.02640666344160446</v>
+        <v>-0.01754939189065758</v>
       </c>
       <c r="E54">
-        <v>0.0507051701993461</v>
+        <v>0.02834207249346668</v>
       </c>
       <c r="F54">
-        <v>-0.01919523727473035</v>
+        <v>0.1198573704430497</v>
       </c>
       <c r="G54">
-        <v>0.002654474799460963</v>
+        <v>0.02771338117362507</v>
       </c>
       <c r="H54">
-        <v>-0.001904428208168173</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>-0.02616130289396883</v>
+      </c>
+      <c r="I54">
+        <v>0.07364645473863769</v>
+      </c>
+      <c r="J54">
+        <v>-0.06845788583658981</v>
+      </c>
+      <c r="K54">
+        <v>-0.07926585465419776</v>
+      </c>
+      <c r="L54">
+        <v>0.06723394531722147</v>
+      </c>
+      <c r="M54">
+        <v>0.03195876923412195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>-0.09080963573874068</v>
+        <v>-0.08753844260881263</v>
       </c>
       <c r="C55">
-        <v>0.002777257204006734</v>
+        <v>0.04079870061713304</v>
       </c>
       <c r="D55">
-        <v>0.01737054674100089</v>
+        <v>0.02985608660646066</v>
       </c>
       <c r="E55">
-        <v>-0.02546626468223654</v>
+        <v>0.006131913576902818</v>
       </c>
       <c r="F55">
-        <v>-0.2074580139302601</v>
+        <v>0.02084354325069153</v>
       </c>
       <c r="G55">
-        <v>0.03223377617088969</v>
+        <v>-0.1544361512337592</v>
       </c>
       <c r="H55">
-        <v>0.08948341380885619</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>-0.08709225275830619</v>
+      </c>
+      <c r="I55">
+        <v>0.0315098444655986</v>
+      </c>
+      <c r="J55">
+        <v>-0.04532509914069106</v>
+      </c>
+      <c r="K55">
+        <v>0.01994425262086151</v>
+      </c>
+      <c r="L55">
+        <v>-0.05638369265695738</v>
+      </c>
+      <c r="M55">
+        <v>-0.01928721433130241</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>-0.1633220657838109</v>
+        <v>-0.1505183987740437</v>
       </c>
       <c r="C56">
-        <v>0.01022110148494585</v>
+        <v>0.07182402343158714</v>
       </c>
       <c r="D56">
-        <v>0.04256223699423003</v>
+        <v>0.03200957719187605</v>
       </c>
       <c r="E56">
-        <v>-0.08185411566969431</v>
+        <v>0.01408546062691047</v>
       </c>
       <c r="F56">
-        <v>-0.2249343631028734</v>
+        <v>-0.02501213242039467</v>
       </c>
       <c r="G56">
-        <v>0.0701794917682247</v>
+        <v>-0.2288710996068989</v>
       </c>
       <c r="H56">
-        <v>0.0812467071517788</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.1070202746993338</v>
+      </c>
+      <c r="I56">
+        <v>0.02597586705466374</v>
+      </c>
+      <c r="J56">
+        <v>-0.04459913299759487</v>
+      </c>
+      <c r="K56">
+        <v>-0.01592244054572002</v>
+      </c>
+      <c r="L56">
+        <v>-0.1058062084464614</v>
+      </c>
+      <c r="M56">
+        <v>-0.05312137364875279</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1102 +3040,1747 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>-0.02595069291137522</v>
+        <v>-0.03515874027217632</v>
       </c>
       <c r="C58">
-        <v>0.04288012968527892</v>
+        <v>0.02973292299972963</v>
       </c>
       <c r="D58">
-        <v>-0.0445430771892143</v>
+        <v>-0.08098903991011165</v>
       </c>
       <c r="E58">
-        <v>0.4028500208076889</v>
+        <v>0.01503136451546672</v>
       </c>
       <c r="F58">
-        <v>0.2921016842937734</v>
+        <v>0.05684217001808822</v>
       </c>
       <c r="G58">
-        <v>0.04718180730623541</v>
+        <v>0.05631693581599841</v>
       </c>
       <c r="H58">
-        <v>0.3694575395071076</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.1194328962188463</v>
+      </c>
+      <c r="I58">
+        <v>0.0634924747250996</v>
+      </c>
+      <c r="J58">
+        <v>0.08443789337581392</v>
+      </c>
+      <c r="K58">
+        <v>0.2707154026280991</v>
+      </c>
+      <c r="L58">
+        <v>0.3921023230499683</v>
+      </c>
+      <c r="M58">
+        <v>-0.001083059860092689</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>-0.2318233561857022</v>
+        <v>-0.2276667250574884</v>
       </c>
       <c r="C59">
-        <v>-0.4092336530976313</v>
+        <v>-0.2979086114903947</v>
       </c>
       <c r="D59">
-        <v>0.03526974802268531</v>
+        <v>0.04681515129949523</v>
       </c>
       <c r="E59">
-        <v>0.00946339427271627</v>
+        <v>0.01099607198059493</v>
       </c>
       <c r="F59">
-        <v>-0.05458426298709888</v>
+        <v>0.02858971889805901</v>
       </c>
       <c r="G59">
-        <v>-0.02978649393975321</v>
+        <v>-0.06562411581299631</v>
       </c>
       <c r="H59">
-        <v>-0.06565149010118825</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.048257058516049</v>
+      </c>
+      <c r="I59">
+        <v>0.009732161832155499</v>
+      </c>
+      <c r="J59">
+        <v>0.1243301378882514</v>
+      </c>
+      <c r="K59">
+        <v>-0.03224004198278434</v>
+      </c>
+      <c r="L59">
+        <v>-0.07868202494023591</v>
+      </c>
+      <c r="M59">
+        <v>-0.04468976720673103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>-0.2552794794419191</v>
+        <v>-0.2380555284660564</v>
       </c>
       <c r="C60">
-        <v>0.07241356254909187</v>
+        <v>0.1224967318011244</v>
       </c>
       <c r="D60">
-        <v>0.08592862441970675</v>
+        <v>0.05804978746674434</v>
       </c>
       <c r="E60">
-        <v>0.01207851880363355</v>
+        <v>0.04275484970743949</v>
       </c>
       <c r="F60">
-        <v>0.05153962455038678</v>
+        <v>-0.1141133479876529</v>
       </c>
       <c r="G60">
-        <v>0.01491827656141388</v>
+        <v>0.06645204122927445</v>
       </c>
       <c r="H60">
-        <v>0.05950536873936212</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.09607656545676517</v>
+      </c>
+      <c r="I60">
+        <v>0.01934601025549435</v>
+      </c>
+      <c r="J60">
+        <v>-0.009908162740199296</v>
+      </c>
+      <c r="K60">
+        <v>0.1468585694900034</v>
+      </c>
+      <c r="L60">
+        <v>-0.2003053904006868</v>
+      </c>
+      <c r="M60">
+        <v>-0.04556079223155482</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>-0.08297636345254888</v>
+        <v>-0.09331592728073512</v>
       </c>
       <c r="C61">
-        <v>0.05535405277432587</v>
+        <v>0.06847643788189112</v>
       </c>
       <c r="D61">
-        <v>0.01315002854283687</v>
+        <v>0.04726595439925448</v>
       </c>
       <c r="E61">
-        <v>0.004495060499369836</v>
+        <v>0.01572953313672827</v>
       </c>
       <c r="F61">
-        <v>-0.02519566886115637</v>
+        <v>0.1288955371042195</v>
       </c>
       <c r="G61">
-        <v>-0.01740203134693285</v>
+        <v>-0.06918654394795883</v>
       </c>
       <c r="H61">
-        <v>-0.06138766161722678</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.01893175404553024</v>
+      </c>
+      <c r="I61">
+        <v>-0.05797894718950129</v>
+      </c>
+      <c r="J61">
+        <v>0.04379285394364265</v>
+      </c>
+      <c r="K61">
+        <v>0.011061151499253</v>
+      </c>
+      <c r="L61">
+        <v>0.08216877903935653</v>
+      </c>
+      <c r="M61">
+        <v>0.01259902196540987</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>-0.1599283276274231</v>
+        <v>-0.1416364383913474</v>
       </c>
       <c r="C62">
-        <v>0.04521248470106397</v>
+        <v>0.07136649327660036</v>
       </c>
       <c r="D62">
-        <v>0.003862884314425984</v>
+        <v>0.0304079477149408</v>
       </c>
       <c r="E62">
-        <v>-0.1442983197426019</v>
+        <v>-0.03262577516509358</v>
       </c>
       <c r="F62">
-        <v>-0.2164752970586843</v>
+        <v>-0.03316646738505365</v>
       </c>
       <c r="G62">
-        <v>-0.001172198683306422</v>
+        <v>-0.1742315721250141</v>
       </c>
       <c r="H62">
-        <v>0.02655306906528512</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.1337529796600827</v>
+      </c>
+      <c r="I62">
+        <v>0.01996739221662893</v>
+      </c>
+      <c r="J62">
+        <v>-0.1020751416108285</v>
+      </c>
+      <c r="K62">
+        <v>-0.04499969404707432</v>
+      </c>
+      <c r="L62">
+        <v>-0.1023424821591659</v>
+      </c>
+      <c r="M62">
+        <v>0.0115665721342976</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>-0.03875832034074703</v>
+        <v>-0.04587177373595808</v>
       </c>
       <c r="C63">
-        <v>0.04021208450552587</v>
+        <v>0.03057815043224688</v>
       </c>
       <c r="D63">
-        <v>0.004559311668508061</v>
+        <v>0.00733024550618327</v>
       </c>
       <c r="E63">
-        <v>-0.003784961750202238</v>
+        <v>-0.009743623891104457</v>
       </c>
       <c r="F63">
-        <v>-0.01967523078872561</v>
+        <v>0.0704247011334484</v>
       </c>
       <c r="G63">
-        <v>-0.0116166042884341</v>
+        <v>-0.002469829254226066</v>
       </c>
       <c r="H63">
-        <v>0.04419247094135687</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.00387511684235691</v>
+      </c>
+      <c r="I63">
+        <v>0.008875923441451106</v>
+      </c>
+      <c r="J63">
+        <v>-0.03719518052714325</v>
+      </c>
+      <c r="K63">
+        <v>0.01110786048104787</v>
+      </c>
+      <c r="L63">
+        <v>0.04172208112637831</v>
+      </c>
+      <c r="M63">
+        <v>0.02164478530784908</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>-0.1036031729552936</v>
+        <v>-0.09703797393568575</v>
       </c>
       <c r="C64">
-        <v>0.02743473563764511</v>
+        <v>0.04661194593506936</v>
       </c>
       <c r="D64">
-        <v>0.03320894440680922</v>
+        <v>-0.008542914933222356</v>
       </c>
       <c r="E64">
-        <v>0.04420524131372199</v>
+        <v>0.03944377652710149</v>
       </c>
       <c r="F64">
-        <v>0.006208154558055047</v>
+        <v>0.06506455807667047</v>
       </c>
       <c r="G64">
-        <v>-0.04017454896096055</v>
+        <v>0.01253471240735794</v>
       </c>
       <c r="H64">
-        <v>-0.05655383174105119</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.07458303229129873</v>
+      </c>
+      <c r="I64">
+        <v>-0.03243813162263554</v>
+      </c>
+      <c r="J64">
+        <v>-0.004629907812509244</v>
+      </c>
+      <c r="K64">
+        <v>-0.01031559869111517</v>
+      </c>
+      <c r="L64">
+        <v>0.0276399507050757</v>
+      </c>
+      <c r="M64">
+        <v>-0.02263208903855308</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>-0.1250951951866843</v>
+        <v>-0.1216620350007523</v>
       </c>
       <c r="C65">
-        <v>0.04711572981472446</v>
+        <v>0.04741611784438831</v>
       </c>
       <c r="D65">
-        <v>0.03014775047638643</v>
+        <v>0.008062694568198183</v>
       </c>
       <c r="E65">
-        <v>0.08784503332168415</v>
+        <v>-0.02681482620494709</v>
       </c>
       <c r="F65">
-        <v>0.1633818530379195</v>
+        <v>0.007376436672143064</v>
       </c>
       <c r="G65">
-        <v>-0.01765678792702132</v>
+        <v>0.1916923351140751</v>
       </c>
       <c r="H65">
-        <v>0.5947755103332408</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.258439858647167</v>
+      </c>
+      <c r="I65">
+        <v>0.405612012605824</v>
+      </c>
+      <c r="J65">
+        <v>-0.4248799697769314</v>
+      </c>
+      <c r="K65">
+        <v>0.2135582115680018</v>
+      </c>
+      <c r="L65">
+        <v>-0.1575880942924233</v>
+      </c>
+      <c r="M65">
+        <v>-0.1097453858964405</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>-0.1572277565383186</v>
+        <v>-0.1257470503326662</v>
       </c>
       <c r="C66">
-        <v>0.1277943237024338</v>
+        <v>0.1302702540168707</v>
       </c>
       <c r="D66">
-        <v>0.01867969832673047</v>
+        <v>0.09856955074918186</v>
       </c>
       <c r="E66">
-        <v>-0.003600961288990297</v>
+        <v>-0.03617573833774679</v>
       </c>
       <c r="F66">
-        <v>-0.0535156435826311</v>
+        <v>0.1627806530070542</v>
       </c>
       <c r="G66">
-        <v>-0.1654412116016213</v>
+        <v>-0.07075670071377954</v>
       </c>
       <c r="H66">
-        <v>-0.2203826603978963</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.08426233533189688</v>
+      </c>
+      <c r="I66">
+        <v>-0.1789195977211155</v>
+      </c>
+      <c r="J66">
+        <v>0.1517614122653108</v>
+      </c>
+      <c r="K66">
+        <v>0.05726564624194046</v>
+      </c>
+      <c r="L66">
+        <v>0.1005171734627595</v>
+      </c>
+      <c r="M66">
+        <v>-0.0883745790046558</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>-0.08096981180074408</v>
+        <v>-0.07930054551594588</v>
       </c>
       <c r="C67">
-        <v>0.0506699733356914</v>
+        <v>0.05992632188844267</v>
       </c>
       <c r="D67">
-        <v>0.006179545262808482</v>
+        <v>-0.02250888803139627</v>
       </c>
       <c r="E67">
-        <v>0.003793677495766854</v>
+        <v>0.01650827735500238</v>
       </c>
       <c r="F67">
-        <v>-0.02470390500057985</v>
+        <v>-0.0565820688065943</v>
       </c>
       <c r="G67">
-        <v>0.00162961831151727</v>
+        <v>-0.08140315387822152</v>
       </c>
       <c r="H67">
-        <v>-0.06934290532407397</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.04140934433203072</v>
+      </c>
+      <c r="I67">
+        <v>-0.0907774947095057</v>
+      </c>
+      <c r="J67">
+        <v>0.0004695049756902288</v>
+      </c>
+      <c r="K67">
+        <v>-0.09563196802704671</v>
+      </c>
+      <c r="L67">
+        <v>-0.08641218720257522</v>
+      </c>
+      <c r="M67">
+        <v>-0.07233504121981305</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>-0.09495602365465976</v>
+        <v>-0.124507004175719</v>
       </c>
       <c r="C68">
-        <v>-0.279613926983227</v>
+        <v>-0.2730748368692824</v>
       </c>
       <c r="D68">
-        <v>-0.003235610455328821</v>
+        <v>0.00944169391511007</v>
       </c>
       <c r="E68">
-        <v>0.01785228518820722</v>
+        <v>0.001346930190975948</v>
       </c>
       <c r="F68">
-        <v>-0.02632266664817138</v>
+        <v>0.03813226238237454</v>
       </c>
       <c r="G68">
-        <v>0.03760687459122733</v>
+        <v>-0.02494758267510981</v>
       </c>
       <c r="H68">
-        <v>0.02667789205793727</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.0166153270317505</v>
+      </c>
+      <c r="I68">
+        <v>0.03500536186200174</v>
+      </c>
+      <c r="J68">
+        <v>-0.04731560176487355</v>
+      </c>
+      <c r="K68">
+        <v>0.02369826693484723</v>
+      </c>
+      <c r="L68">
+        <v>0.02029327163108481</v>
+      </c>
+      <c r="M68">
+        <v>-0.02747197842077268</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>-0.03646297223223079</v>
+        <v>-0.04268223009076282</v>
       </c>
       <c r="C69">
-        <v>0.02559261152330405</v>
+        <v>0.02043268438502919</v>
       </c>
       <c r="D69">
-        <v>0.006977324699068197</v>
+        <v>-0.005604585962842268</v>
       </c>
       <c r="E69">
-        <v>0.01345904097618606</v>
+        <v>0.002914400620409163</v>
       </c>
       <c r="F69">
-        <v>-0.02738918706448555</v>
+        <v>0.01858999124610045</v>
       </c>
       <c r="G69">
-        <v>-0.03750583339726914</v>
+        <v>-0.02527145910071171</v>
       </c>
       <c r="H69">
-        <v>0.0009237741578820292</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.0112103554952056</v>
+      </c>
+      <c r="I69">
+        <v>-0.01208123100300047</v>
+      </c>
+      <c r="J69">
+        <v>-0.01682985839810427</v>
+      </c>
+      <c r="K69">
+        <v>-0.006601999572507115</v>
+      </c>
+      <c r="L69">
+        <v>-0.006479732180605336</v>
+      </c>
+      <c r="M69">
+        <v>0.07560285488671879</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>-0.05318356657476349</v>
+        <v>-0.0529279031708289</v>
       </c>
       <c r="C70">
-        <v>-0.006402346573350775</v>
+        <v>0.03501068860829795</v>
       </c>
       <c r="D70">
-        <v>0.03858079123708106</v>
+        <v>0.02049369286160864</v>
       </c>
       <c r="E70">
-        <v>0.001002397467285238</v>
+        <v>0.02323318457824118</v>
       </c>
       <c r="F70">
-        <v>0.0912603526572215</v>
+        <v>-0.007269786139898266</v>
       </c>
       <c r="G70">
-        <v>0.05124955970331996</v>
+        <v>0.06422572032506361</v>
       </c>
       <c r="H70">
-        <v>-0.05611691563511755</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.002109885815087469</v>
+      </c>
+      <c r="I70">
+        <v>0.04370331940626231</v>
+      </c>
+      <c r="J70">
+        <v>-0.1347142419235761</v>
+      </c>
+      <c r="K70">
+        <v>-0.2616795857368523</v>
+      </c>
+      <c r="L70">
+        <v>0.07680541576984173</v>
+      </c>
+      <c r="M70">
+        <v>0.08632032961328757</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>-0.1007849943882466</v>
+        <v>-0.1383380780373392</v>
       </c>
       <c r="C71">
-        <v>-0.2794747289330028</v>
+        <v>-0.2807599792141783</v>
       </c>
       <c r="D71">
-        <v>0.03132434401807006</v>
+        <v>0.0150360556546685</v>
       </c>
       <c r="E71">
-        <v>0.009870845916986597</v>
+        <v>0.02019990749357156</v>
       </c>
       <c r="F71">
-        <v>0.003601107674215347</v>
+        <v>0.03561326902646175</v>
       </c>
       <c r="G71">
-        <v>0.01400687125363893</v>
+        <v>-0.0250692136291954</v>
       </c>
       <c r="H71">
-        <v>-0.003777569725229841</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.02729012112374856</v>
+      </c>
+      <c r="I71">
+        <v>-0.003246457196010767</v>
+      </c>
+      <c r="J71">
+        <v>-0.02473763347294202</v>
+      </c>
+      <c r="K71">
+        <v>0.02165848622894214</v>
+      </c>
+      <c r="L71">
+        <v>0.01194580047658636</v>
+      </c>
+      <c r="M71">
+        <v>-0.009521872675652188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>-0.1801306364334176</v>
+        <v>-0.1440590325081885</v>
       </c>
       <c r="C72">
-        <v>0.02708177616927619</v>
+        <v>0.0315450482557094</v>
       </c>
       <c r="D72">
-        <v>-0.2449095257520227</v>
+        <v>-0.008943267479309076</v>
       </c>
       <c r="E72">
-        <v>-0.05994580134057947</v>
+        <v>-0.1875730210560816</v>
       </c>
       <c r="F72">
-        <v>-0.04729365284722169</v>
+        <v>0.04298019667720319</v>
       </c>
       <c r="G72">
-        <v>-0.07634348403168541</v>
+        <v>-0.01699335227292801</v>
       </c>
       <c r="H72">
-        <v>0.07740281988152004</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.01753771202514178</v>
+      </c>
+      <c r="I72">
+        <v>0.03712558098866469</v>
+      </c>
+      <c r="J72">
+        <v>-0.06025073606007337</v>
+      </c>
+      <c r="K72">
+        <v>0.04280434573667782</v>
+      </c>
+      <c r="L72">
+        <v>-0.1343851727891176</v>
+      </c>
+      <c r="M72">
+        <v>-0.02825894890676</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>-0.2798117065082141</v>
+        <v>-0.2410301487017177</v>
       </c>
       <c r="C73">
-        <v>0.1878843621645407</v>
+        <v>0.1521421562433533</v>
       </c>
       <c r="D73">
-        <v>0.1050613281535307</v>
+        <v>0.1383030572209198</v>
       </c>
       <c r="E73">
-        <v>-0.02554538128230879</v>
+        <v>0.08291941571119889</v>
       </c>
       <c r="F73">
-        <v>0.2137202530398563</v>
+        <v>-0.4509168187388806</v>
       </c>
       <c r="G73">
-        <v>-0.02005224127619508</v>
+        <v>0.1238627369615562</v>
       </c>
       <c r="H73">
-        <v>0.1428117604820239</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.2260869531144687</v>
+      </c>
+      <c r="I73">
+        <v>-0.2841380577867731</v>
+      </c>
+      <c r="J73">
+        <v>0.1648624769571191</v>
+      </c>
+      <c r="K73">
+        <v>0.2880732882374243</v>
+      </c>
+      <c r="L73">
+        <v>-0.04097177894671579</v>
+      </c>
+      <c r="M73">
+        <v>-0.1610374166526422</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>-0.09261662921047263</v>
+        <v>-0.09331307802137166</v>
       </c>
       <c r="C74">
-        <v>0.04106402476331066</v>
+        <v>0.07253720285411594</v>
       </c>
       <c r="D74">
-        <v>0.008457721684283371</v>
+        <v>0.008689226374269171</v>
       </c>
       <c r="E74">
-        <v>-0.0264797861252732</v>
+        <v>-0.01047532917436505</v>
       </c>
       <c r="F74">
-        <v>-0.1235371425153327</v>
+        <v>-0.02806473763285403</v>
       </c>
       <c r="G74">
-        <v>0.03951042737505484</v>
+        <v>-0.1482614290180852</v>
       </c>
       <c r="H74">
-        <v>0.08026095936751172</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>-0.02838757378774169</v>
+      </c>
+      <c r="I74">
+        <v>-0.02829511461910821</v>
+      </c>
+      <c r="J74">
+        <v>-0.04236576183126596</v>
+      </c>
+      <c r="K74">
+        <v>0.02178116941737117</v>
+      </c>
+      <c r="L74">
+        <v>-0.01977375420424299</v>
+      </c>
+      <c r="M74">
+        <v>-0.01727304232085504</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>-0.09074049218429492</v>
+        <v>-0.09234771664435204</v>
       </c>
       <c r="C75">
-        <v>0.01738951747170779</v>
+        <v>0.05329808879537845</v>
       </c>
       <c r="D75">
-        <v>0.01299176964731572</v>
+        <v>0.006513213921017845</v>
       </c>
       <c r="E75">
-        <v>-0.0417707050100855</v>
+        <v>-0.01010504625550684</v>
       </c>
       <c r="F75">
-        <v>-0.1072720454342453</v>
+        <v>-0.01733202759132363</v>
       </c>
       <c r="G75">
-        <v>0.05126670469626209</v>
+        <v>-0.1049955932371735</v>
       </c>
       <c r="H75">
-        <v>0.03458926837259631</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>-0.07073354068631445</v>
+      </c>
+      <c r="I75">
+        <v>0.03925022000635722</v>
+      </c>
+      <c r="J75">
+        <v>-0.009337873642645326</v>
+      </c>
+      <c r="K75">
+        <v>-0.005935716553813286</v>
+      </c>
+      <c r="L75">
+        <v>-0.04441385367846983</v>
+      </c>
+      <c r="M75">
+        <v>0.07254062903572113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>-0.1358405647039583</v>
+        <v>-0.08740599546496741</v>
       </c>
       <c r="C76">
-        <v>0.02521351827518215</v>
+        <v>0.06302842538942596</v>
       </c>
       <c r="D76">
-        <v>0.01741839427547521</v>
+        <v>0.003150183415776048</v>
       </c>
       <c r="E76">
-        <v>-0.02481252470975622</v>
+        <v>0.006615786299954954</v>
       </c>
       <c r="F76">
-        <v>-0.2309344564088404</v>
+        <v>-0.04357821551652916</v>
       </c>
       <c r="G76">
-        <v>0.0648362603860717</v>
+        <v>-0.1945192815914413</v>
       </c>
       <c r="H76">
-        <v>0.1014478454565182</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>-0.1058250653914446</v>
+      </c>
+      <c r="I76">
+        <v>0.04338077175986602</v>
+      </c>
+      <c r="J76">
+        <v>-0.02837381521516269</v>
+      </c>
+      <c r="K76">
+        <v>0.007359356529920802</v>
+      </c>
+      <c r="L76">
+        <v>-0.05549315767508258</v>
+      </c>
+      <c r="M76">
+        <v>-0.08916102723903807</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>-0.07169245639174403</v>
+        <v>-0.06773979380956627</v>
       </c>
       <c r="C77">
-        <v>0.01871868709420421</v>
+        <v>0.02565001400238552</v>
       </c>
       <c r="D77">
-        <v>0.01080904503898632</v>
+        <v>0.01695815795361744</v>
       </c>
       <c r="E77">
-        <v>0.1671268028853037</v>
+        <v>0.05172638960228952</v>
       </c>
       <c r="F77">
-        <v>0.08483363491885505</v>
+        <v>0.2683621734334457</v>
       </c>
       <c r="G77">
-        <v>-0.6716401064148078</v>
+        <v>0.15779257525074</v>
       </c>
       <c r="H77">
-        <v>-0.172333863322948</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.3545325004112943</v>
+      </c>
+      <c r="I77">
+        <v>-0.09462739514028701</v>
+      </c>
+      <c r="J77">
+        <v>0.2698362550040685</v>
+      </c>
+      <c r="K77">
+        <v>-0.3852982600543377</v>
+      </c>
+      <c r="L77">
+        <v>-0.4982950898681507</v>
+      </c>
+      <c r="M77">
+        <v>-0.01586772998928116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>-0.1482960074035385</v>
+        <v>-0.1648689049416878</v>
       </c>
       <c r="C78">
-        <v>0.08390380477166078</v>
+        <v>0.1268331146158491</v>
       </c>
       <c r="D78">
-        <v>0.01731342867293042</v>
+        <v>-0.1807190162585803</v>
       </c>
       <c r="E78">
-        <v>0.1785854093648602</v>
+        <v>0.1048887888583798</v>
       </c>
       <c r="F78">
-        <v>0.001652639983832866</v>
+        <v>0.1444236979946636</v>
       </c>
       <c r="G78">
-        <v>-0.005815818372050419</v>
+        <v>0.2605635395276485</v>
       </c>
       <c r="H78">
-        <v>-0.09302614124761177</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.377754772394869</v>
+      </c>
+      <c r="I78">
+        <v>0.4665324680536539</v>
+      </c>
+      <c r="J78">
+        <v>0.530703661034866</v>
+      </c>
+      <c r="K78">
+        <v>0.1543533343620605</v>
+      </c>
+      <c r="L78">
+        <v>-0.09964699266583613</v>
+      </c>
+      <c r="M78">
+        <v>-0.1120505558674384</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>-0.1406331451014865</v>
+        <v>-0.1338102443658763</v>
       </c>
       <c r="C79">
-        <v>0.0456387097492724</v>
+        <v>0.07643034552126797</v>
       </c>
       <c r="D79">
-        <v>0.0271681910894684</v>
+        <v>0.003059281551803673</v>
       </c>
       <c r="E79">
-        <v>-0.05571815544272684</v>
+        <v>0.005649456557227071</v>
       </c>
       <c r="F79">
-        <v>-0.1591413432306091</v>
+        <v>0.006375548987966901</v>
       </c>
       <c r="G79">
-        <v>0.04260185539108424</v>
+        <v>-0.1662079455318077</v>
       </c>
       <c r="H79">
-        <v>0.03363557021332774</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-0.07744949519900202</v>
+      </c>
+      <c r="I79">
+        <v>0.0128003295650504</v>
+      </c>
+      <c r="J79">
+        <v>-0.06943103885586963</v>
+      </c>
+      <c r="K79">
+        <v>-0.009610105118747979</v>
+      </c>
+      <c r="L79">
+        <v>-0.08091097521209764</v>
+      </c>
+      <c r="M79">
+        <v>0.0192214407991126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>-0.02618134009302725</v>
+        <v>-0.05841431581138874</v>
       </c>
       <c r="C80">
-        <v>-0.0007277612651144772</v>
+        <v>0.02638537654083594</v>
       </c>
       <c r="D80">
-        <v>0.004984052049102128</v>
+        <v>0.06730338580689407</v>
       </c>
       <c r="E80">
-        <v>-0.04575806711262528</v>
+        <v>0.009776545850339664</v>
       </c>
       <c r="F80">
-        <v>-0.002883011590033525</v>
+        <v>0.03390583311843894</v>
       </c>
       <c r="G80">
-        <v>-0.01707889885791684</v>
+        <v>0.02139976425564048</v>
       </c>
       <c r="H80">
-        <v>0.04485860354901838</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.00801629374066507</v>
+      </c>
+      <c r="I80">
+        <v>0.04563071460763669</v>
+      </c>
+      <c r="J80">
+        <v>-0.07609372110684093</v>
+      </c>
+      <c r="K80">
+        <v>0.0562756762436144</v>
+      </c>
+      <c r="L80">
+        <v>0.1870830264245076</v>
+      </c>
+      <c r="M80">
+        <v>0.002878845484537518</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>-0.110122142674031</v>
+        <v>-0.1210358983431973</v>
       </c>
       <c r="C81">
-        <v>0.04330629961324987</v>
+        <v>0.06138360995208373</v>
       </c>
       <c r="D81">
-        <v>0.03145979984118873</v>
+        <v>0.003177433939103909</v>
       </c>
       <c r="E81">
-        <v>-0.05622514997910201</v>
+        <v>0.006337160289205794</v>
       </c>
       <c r="F81">
-        <v>-0.1160108580162946</v>
+        <v>0.02729071333703451</v>
       </c>
       <c r="G81">
-        <v>0.01552681676977367</v>
+        <v>-0.1329672460192511</v>
       </c>
       <c r="H81">
-        <v>0.0168154396113301</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>-0.08003991333990726</v>
+      </c>
+      <c r="I81">
+        <v>-0.008982902481114658</v>
+      </c>
+      <c r="J81">
+        <v>-0.03246244296734316</v>
+      </c>
+      <c r="K81">
+        <v>-0.007166350584875506</v>
+      </c>
+      <c r="L81">
+        <v>-0.05592350134368169</v>
+      </c>
+      <c r="M81">
+        <v>0.1044821640007758</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>-0.1119674117134816</v>
+        <v>-0.1193929343167357</v>
       </c>
       <c r="C82">
-        <v>0.02771953858961579</v>
+        <v>0.0524633206832659</v>
       </c>
       <c r="D82">
-        <v>0.06256407487789649</v>
+        <v>0.02645177868718098</v>
       </c>
       <c r="E82">
-        <v>-0.08308607506754027</v>
+        <v>0.0008324051055476122</v>
       </c>
       <c r="F82">
-        <v>-0.2349409205283609</v>
+        <v>-0.01685583578621254</v>
       </c>
       <c r="G82">
-        <v>0.05250673760252642</v>
+        <v>-0.2375456310346406</v>
       </c>
       <c r="H82">
-        <v>0.03425352508903134</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.1302784774258006</v>
+      </c>
+      <c r="I82">
+        <v>-0.0311601759503354</v>
+      </c>
+      <c r="J82">
+        <v>-0.04605717522049877</v>
+      </c>
+      <c r="K82">
+        <v>-0.06207952910736773</v>
+      </c>
+      <c r="L82">
+        <v>0.01034986533749532</v>
+      </c>
+      <c r="M82">
+        <v>0.04321714729224922</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>-0.0617252560259955</v>
+        <v>-0.07394839205080743</v>
       </c>
       <c r="C83">
-        <v>0.04747646374369545</v>
+        <v>0.07104347742185968</v>
       </c>
       <c r="D83">
-        <v>0.02692762170337881</v>
+        <v>0.01656681273669528</v>
       </c>
       <c r="E83">
-        <v>0.00340173357274652</v>
+        <v>0.003902031031953092</v>
       </c>
       <c r="F83">
-        <v>0.05542375057388219</v>
+        <v>0.01888887294038872</v>
       </c>
       <c r="G83">
-        <v>-0.01667866096947881</v>
+        <v>-0.03227394353904989</v>
       </c>
       <c r="H83">
-        <v>-0.09627086002725137</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.0800597642017527</v>
+      </c>
+      <c r="I83">
+        <v>-0.01600234898633295</v>
+      </c>
+      <c r="J83">
+        <v>0.0006651554881444684</v>
+      </c>
+      <c r="K83">
+        <v>-0.08146587526581144</v>
+      </c>
+      <c r="L83">
+        <v>0.1294401341689542</v>
+      </c>
+      <c r="M83">
+        <v>-0.03456166567950639</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>-0.04944604588348091</v>
+        <v>-0.04927585613738443</v>
       </c>
       <c r="C84">
-        <v>0.04814649270892758</v>
+        <v>-0.02129944075359056</v>
       </c>
       <c r="D84">
-        <v>-0.06418502730131419</v>
+        <v>0.00687151080951874</v>
       </c>
       <c r="E84">
-        <v>-0.007011450232352051</v>
+        <v>-0.01523597327015633</v>
       </c>
       <c r="F84">
-        <v>-0.03150353313023978</v>
+        <v>0.01238802945227368</v>
       </c>
       <c r="G84">
-        <v>0.1478620697129493</v>
+        <v>0.1993691800343863</v>
       </c>
       <c r="H84">
-        <v>-0.007080664537955314</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.1754531069056165</v>
+      </c>
+      <c r="I84">
+        <v>-0.1298885046144577</v>
+      </c>
+      <c r="J84">
+        <v>-0.0453312731638822</v>
+      </c>
+      <c r="K84">
+        <v>-0.04696415364065801</v>
+      </c>
+      <c r="L84">
+        <v>0.2478220396796842</v>
+      </c>
+      <c r="M84">
+        <v>-0.4963685482840163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>-0.08834042134585601</v>
+        <v>-0.1091383106545061</v>
       </c>
       <c r="C85">
-        <v>0.04173657348816581</v>
+        <v>0.05069481525765514</v>
       </c>
       <c r="D85">
-        <v>0.0590704051909643</v>
+        <v>0.01236628723497954</v>
       </c>
       <c r="E85">
-        <v>-0.03937274472400706</v>
+        <v>0.03349604833426448</v>
       </c>
       <c r="F85">
-        <v>-0.1857727863092129</v>
+        <v>0.008057526368174885</v>
       </c>
       <c r="G85">
-        <v>2.638421053027321e-05</v>
+        <v>-0.1705775834625119</v>
       </c>
       <c r="H85">
-        <v>0.07092841223957301</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>-0.07939879226326728</v>
+      </c>
+      <c r="I85">
+        <v>0.006942980237241676</v>
+      </c>
+      <c r="J85">
+        <v>-0.0634052672349146</v>
+      </c>
+      <c r="K85">
+        <v>0.005775771351257178</v>
+      </c>
+      <c r="L85">
+        <v>-0.0999225193682534</v>
+      </c>
+      <c r="M85">
+        <v>0.03249697210842652</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>-0.04763137623689154</v>
+        <v>-0.07359873204772822</v>
       </c>
       <c r="C86">
-        <v>0.03400045167873161</v>
+        <v>0.02220327473878567</v>
       </c>
       <c r="D86">
-        <v>0.01007359591622406</v>
+        <v>-0.02043257855472578</v>
       </c>
       <c r="E86">
-        <v>0.02091160426770028</v>
+        <v>0.1169947268913421</v>
       </c>
       <c r="F86">
-        <v>0.01565871151536851</v>
+        <v>0.04789395456474991</v>
       </c>
       <c r="G86">
-        <v>-0.0778255465531893</v>
+        <v>0.4492969753332437</v>
       </c>
       <c r="H86">
-        <v>0.05079839511395026</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.5151260434325358</v>
+      </c>
+      <c r="I86">
+        <v>-0.3832956259829109</v>
+      </c>
+      <c r="J86">
+        <v>-0.3221492706277778</v>
+      </c>
+      <c r="K86">
+        <v>0.01803387391027273</v>
+      </c>
+      <c r="L86">
+        <v>-0.204791389887431</v>
+      </c>
+      <c r="M86">
+        <v>-0.007361800857572523</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>-0.09538440493689587</v>
+        <v>-0.1137793395626529</v>
       </c>
       <c r="C87">
-        <v>0.05319373938454786</v>
+        <v>0.06803702201863571</v>
       </c>
       <c r="D87">
-        <v>0.002908410805298798</v>
+        <v>-0.02869468454693898</v>
       </c>
       <c r="E87">
-        <v>0.09712773989184963</v>
+        <v>0.03103746820795868</v>
       </c>
       <c r="F87">
-        <v>-0.0008266427677945537</v>
+        <v>0.112165225332359</v>
       </c>
       <c r="G87">
-        <v>-0.1369827306362723</v>
+        <v>0.07774940832864342</v>
       </c>
       <c r="H87">
-        <v>-0.06892930796457032</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.1139605619719546</v>
+      </c>
+      <c r="I87">
+        <v>-0.0570673854822434</v>
+      </c>
+      <c r="J87">
+        <v>0.01502034715497177</v>
+      </c>
+      <c r="K87">
+        <v>-0.1902009762228313</v>
+      </c>
+      <c r="L87">
+        <v>-0.02342037962146779</v>
+      </c>
+      <c r="M87">
+        <v>0.03701856151807985</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>-0.0561544830130175</v>
+        <v>-0.05693886468145851</v>
       </c>
       <c r="C88">
-        <v>0.04241907397636416</v>
+        <v>0.05464694695888205</v>
       </c>
       <c r="D88">
-        <v>0.02584826350329587</v>
+        <v>0.02930866880101236</v>
       </c>
       <c r="E88">
-        <v>0.0104990116165706</v>
+        <v>0.005545818488866661</v>
       </c>
       <c r="F88">
-        <v>0.008554882435939768</v>
+        <v>0.0354959301377293</v>
       </c>
       <c r="G88">
-        <v>-0.02735964333062457</v>
+        <v>-0.02880585403702289</v>
       </c>
       <c r="H88">
-        <v>-0.03011258231561753</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.01430310381398446</v>
+      </c>
+      <c r="I88">
+        <v>-0.01685780644232367</v>
+      </c>
+      <c r="J88">
+        <v>-0.01259209490022607</v>
+      </c>
+      <c r="K88">
+        <v>0.02859125840932888</v>
+      </c>
+      <c r="L88">
+        <v>0.05670052745121307</v>
+      </c>
+      <c r="M88">
+        <v>0.05866250436701938</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>-0.157861240921814</v>
+        <v>-0.2134851318317514</v>
       </c>
       <c r="C89">
-        <v>-0.3298091854480465</v>
+        <v>-0.357588680100779</v>
       </c>
       <c r="D89">
-        <v>0.06509288716352027</v>
+        <v>-0.03862711834826142</v>
       </c>
       <c r="E89">
-        <v>0.08964661009045581</v>
+        <v>0.08152822461879451</v>
       </c>
       <c r="F89">
-        <v>0.04802963103602424</v>
+        <v>0.01204320718551981</v>
       </c>
       <c r="G89">
-        <v>-0.02355667159566847</v>
+        <v>0.008576697088016528</v>
       </c>
       <c r="H89">
-        <v>-0.002506833771884302</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-5.540042233560075e-05</v>
+      </c>
+      <c r="I89">
+        <v>-0.0210143068833769</v>
+      </c>
+      <c r="J89">
+        <v>0.05391777848333538</v>
+      </c>
+      <c r="K89">
+        <v>0.01803931113256129</v>
+      </c>
+      <c r="L89">
+        <v>0.05728254090606668</v>
+      </c>
+      <c r="M89">
+        <v>0.07516016990521326</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>-0.1226673680350843</v>
+        <v>-0.1497136159257007</v>
       </c>
       <c r="C90">
-        <v>-0.2797804199461355</v>
+        <v>-0.2696261945036457</v>
       </c>
       <c r="D90">
-        <v>0.003361425448846264</v>
+        <v>0.01181236858986442</v>
       </c>
       <c r="E90">
-        <v>0.06106071150040109</v>
+        <v>0.0190659494871139</v>
       </c>
       <c r="F90">
-        <v>0.03615669918108127</v>
+        <v>0.03276441784700847</v>
       </c>
       <c r="G90">
-        <v>-0.09661458326656558</v>
+        <v>0.01804332486124495</v>
       </c>
       <c r="H90">
-        <v>-0.035687123337594</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0.05322830319981123</v>
+      </c>
+      <c r="I90">
+        <v>-0.03329416673834822</v>
+      </c>
+      <c r="J90">
+        <v>0.007050744474285799</v>
+      </c>
+      <c r="K90">
+        <v>0.02854601763449163</v>
+      </c>
+      <c r="L90">
+        <v>0.006024699723372226</v>
+      </c>
+      <c r="M90">
+        <v>-0.05592356384553898</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>-0.08378982157070272</v>
+        <v>-0.07735404054957561</v>
       </c>
       <c r="C91">
-        <v>0.01848763783898666</v>
+        <v>0.0536727964182605</v>
       </c>
       <c r="D91">
-        <v>0.01215774350309592</v>
+        <v>-0.005771715821057576</v>
       </c>
       <c r="E91">
-        <v>0.01146723380136892</v>
+        <v>0.01009617149763634</v>
       </c>
       <c r="F91">
-        <v>-0.09959671375558005</v>
+        <v>-0.01073612590578087</v>
       </c>
       <c r="G91">
-        <v>0.05953185746549062</v>
+        <v>-0.09036424333837623</v>
       </c>
       <c r="H91">
-        <v>0.03491024345213782</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>-0.06763257128086185</v>
+      </c>
+      <c r="I91">
+        <v>0.007267081168747899</v>
+      </c>
+      <c r="J91">
+        <v>0.006106709419098253</v>
+      </c>
+      <c r="K91">
+        <v>0.01010406665934445</v>
+      </c>
+      <c r="L91">
+        <v>-0.01853616716683902</v>
+      </c>
+      <c r="M91">
+        <v>-0.005167563772619775</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>-0.1358125941323924</v>
+        <v>-0.1697853052206883</v>
       </c>
       <c r="C92">
-        <v>-0.3061643543372104</v>
+        <v>-0.3046607541430568</v>
       </c>
       <c r="D92">
-        <v>0.04442430047501673</v>
+        <v>-0.02968363609793399</v>
       </c>
       <c r="E92">
-        <v>0.0458945466458674</v>
+        <v>0.04970879374106878</v>
       </c>
       <c r="F92">
-        <v>0.04187915245293874</v>
+        <v>0.03711329847787399</v>
       </c>
       <c r="G92">
-        <v>0.08828909840670106</v>
+        <v>-0.02933703682600059</v>
       </c>
       <c r="H92">
-        <v>0.0189421034495173</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>-0.01593922460692675</v>
+      </c>
+      <c r="I92">
+        <v>0.0087857721215952</v>
+      </c>
+      <c r="J92">
+        <v>0.01385682258653744</v>
+      </c>
+      <c r="K92">
+        <v>0.03524971535654853</v>
+      </c>
+      <c r="L92">
+        <v>0.04523309402364496</v>
+      </c>
+      <c r="M92">
+        <v>0.07779288212474925</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>-0.1355443930626398</v>
+        <v>-0.165183093145148</v>
       </c>
       <c r="C93">
-        <v>-0.2603200454087801</v>
+        <v>-0.286325310952962</v>
       </c>
       <c r="D93">
-        <v>0.02577735949176677</v>
+        <v>0.03272277998434057</v>
       </c>
       <c r="E93">
-        <v>0.02463997961474123</v>
+        <v>0.00693890785916979</v>
       </c>
       <c r="F93">
-        <v>0.02946119575477009</v>
+        <v>0.01361721807446299</v>
       </c>
       <c r="G93">
-        <v>-0.01472271155825717</v>
+        <v>0.01385000917318096</v>
       </c>
       <c r="H93">
-        <v>-0.01831275507802229</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.0104784949759854</v>
+      </c>
+      <c r="I93">
+        <v>-0.01524524197767354</v>
+      </c>
+      <c r="J93">
+        <v>-0.03950555253356158</v>
+      </c>
+      <c r="K93">
+        <v>-0.004851075129368138</v>
+      </c>
+      <c r="L93">
+        <v>0.02152308843954936</v>
+      </c>
+      <c r="M93">
+        <v>-0.03312674058108393</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>-0.09083125295825305</v>
+        <v>-0.1089258531681297</v>
       </c>
       <c r="C94">
-        <v>0.05596781642446157</v>
+        <v>0.07490653172598255</v>
       </c>
       <c r="D94">
-        <v>0.0104409841082146</v>
+        <v>-0.01789107362220514</v>
       </c>
       <c r="E94">
-        <v>-0.005535639193723417</v>
+        <v>0.01652087916099867</v>
       </c>
       <c r="F94">
-        <v>-0.158023406772557</v>
+        <v>-0.02920892354047127</v>
       </c>
       <c r="G94">
-        <v>0.08343926725353883</v>
+        <v>-0.1321780110232362</v>
       </c>
       <c r="H94">
-        <v>0.07673420141465238</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>-0.06346720992038986</v>
+      </c>
+      <c r="I94">
+        <v>0.03426849458644175</v>
+      </c>
+      <c r="J94">
+        <v>-0.01691420892408575</v>
+      </c>
+      <c r="K94">
+        <v>0.04675520846619875</v>
+      </c>
+      <c r="L94">
+        <v>-0.01770422512877055</v>
+      </c>
+      <c r="M94">
+        <v>0.008176264883315142</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>-0.09915432680785197</v>
+        <v>-0.1219087133315116</v>
       </c>
       <c r="C95">
-        <v>0.07445909190692819</v>
+        <v>0.0747595020691867</v>
       </c>
       <c r="D95">
-        <v>0.07222513206197725</v>
+        <v>-0.01612258742444786</v>
       </c>
       <c r="E95">
-        <v>0.05014675870830251</v>
+        <v>0.06796572683161163</v>
       </c>
       <c r="F95">
-        <v>0.06004126940618394</v>
+        <v>0.07379109839474914</v>
       </c>
       <c r="G95">
-        <v>-0.0001553950120835531</v>
+        <v>0.219048484251648</v>
       </c>
       <c r="H95">
-        <v>-0.006109659475346581</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.05283400828451019</v>
+      </c>
+      <c r="I95">
+        <v>-0.05918023107779331</v>
+      </c>
+      <c r="J95">
+        <v>-0.1276309474552287</v>
+      </c>
+      <c r="K95">
+        <v>0.06422105664070094</v>
+      </c>
+      <c r="L95">
+        <v>0.09191707892482326</v>
+      </c>
+      <c r="M95">
+        <v>0.5044319901509844</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>7.100865825545722e-05</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.0009531294459519928</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.0002714408023683505</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.001562315044504536</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.00056450121055184</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.0001228184194368021</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>-0.0006506567741088794</v>
+      </c>
+      <c r="I96">
+        <v>-0.001938742231505897</v>
+      </c>
+      <c r="J96">
+        <v>-0.001668531023395872</v>
+      </c>
+      <c r="K96">
+        <v>-0.001713097993722106</v>
+      </c>
+      <c r="L96">
+        <v>-0.003041673448023716</v>
+      </c>
+      <c r="M96">
+        <v>-0.003625252139587302</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>-0.2441195383479602</v>
+        <v>-0.1573176719061192</v>
       </c>
       <c r="C97">
-        <v>0.003187690349510339</v>
+        <v>-0.003591375379637051</v>
       </c>
       <c r="D97">
-        <v>-0.881002960143473</v>
+        <v>-0.09360704870027092</v>
       </c>
       <c r="E97">
-        <v>-0.1604289949193076</v>
+        <v>-0.9290055764081451</v>
       </c>
       <c r="F97">
-        <v>0.1219712155594146</v>
+        <v>0.05157216654046829</v>
       </c>
       <c r="G97">
-        <v>-0.0315397748280801</v>
+        <v>0.1165210868319308</v>
       </c>
       <c r="H97">
-        <v>-0.01428431808024521</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.04958743950637078</v>
+      </c>
+      <c r="I97">
+        <v>-0.06974978930532144</v>
+      </c>
+      <c r="J97">
+        <v>0.04732706563666342</v>
+      </c>
+      <c r="K97">
+        <v>0.007772974501999917</v>
+      </c>
+      <c r="L97">
+        <v>0.0009507729595360871</v>
+      </c>
+      <c r="M97">
+        <v>0.02668540223439729</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>-0.294637431231676</v>
+        <v>-0.2658718644512754</v>
       </c>
       <c r="C98">
-        <v>0.1172195662819535</v>
+        <v>0.1120696225884702</v>
       </c>
       <c r="D98">
-        <v>0.1630898588674835</v>
+        <v>-0.002087163812912944</v>
       </c>
       <c r="E98">
-        <v>-0.2403606501832253</v>
+        <v>-0.001899574528200646</v>
       </c>
       <c r="F98">
-        <v>0.4605964153357772</v>
+        <v>-0.4574244558233764</v>
       </c>
       <c r="G98">
-        <v>0.400170233235247</v>
+        <v>0.1593538129531917</v>
       </c>
       <c r="H98">
-        <v>-0.3455602456490772</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.01224699429226306</v>
+      </c>
+      <c r="I98">
+        <v>0.2217202719189416</v>
+      </c>
+      <c r="J98">
+        <v>0.08373091149593417</v>
+      </c>
+      <c r="K98">
+        <v>-0.5653681059263603</v>
+      </c>
+      <c r="L98">
+        <v>0.2985613403178061</v>
+      </c>
+      <c r="M98">
+        <v>0.07007625778930011</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>-0.06513132664314765</v>
+        <v>-0.06855429320692108</v>
       </c>
       <c r="C99">
-        <v>0.04714916348638967</v>
+        <v>0.05640630125710865</v>
       </c>
       <c r="D99">
-        <v>0.04658219125667085</v>
+        <v>-0.009223790014602358</v>
       </c>
       <c r="E99">
-        <v>0.009312492708308402</v>
+        <v>0.03835351628692252</v>
       </c>
       <c r="F99">
-        <v>0.0172216606743101</v>
+        <v>-0.01197981249340883</v>
       </c>
       <c r="G99">
-        <v>0.003312451023729063</v>
+        <v>-0.01690164210024914</v>
       </c>
       <c r="H99">
-        <v>-0.07847470376147012</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-0.004177882218847512</v>
+      </c>
+      <c r="I99">
+        <v>-0.01482088343010452</v>
+      </c>
+      <c r="J99">
+        <v>0.0534142742834033</v>
+      </c>
+      <c r="K99">
+        <v>-0.02742470626922406</v>
+      </c>
+      <c r="L99">
+        <v>-0.03443327634761894</v>
+      </c>
+      <c r="M99">
+        <v>0.1057679586475727</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3303,36 +4803,66 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>-0.05188197253555753</v>
+        <v>-0.04204887322146149</v>
       </c>
       <c r="C101">
-        <v>0.01876020630270963</v>
+        <v>0.02900230552999786</v>
       </c>
       <c r="D101">
-        <v>0.01185867415398175</v>
+        <v>0.00419581626242375</v>
       </c>
       <c r="E101">
-        <v>0.02188268066119039</v>
+        <v>0.02101505514642752</v>
       </c>
       <c r="F101">
-        <v>-0.004707777932003074</v>
+        <v>0.05831035650033871</v>
       </c>
       <c r="G101">
-        <v>0.0130967993675225</v>
+        <v>-0.02494896682635896</v>
       </c>
       <c r="H101">
-        <v>0.005911718089171032</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>-0.01556445047798729</v>
+      </c>
+      <c r="I101">
+        <v>0.01468348201958529</v>
+      </c>
+      <c r="J101">
+        <v>-0.05780029003946888</v>
+      </c>
+      <c r="K101">
+        <v>-0.01560980380069284</v>
+      </c>
+      <c r="L101">
+        <v>0.04238603813449259</v>
+      </c>
+      <c r="M101">
+        <v>-0.007978170521767441</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
